--- a/artfynd/A 62534-2022.xlsx
+++ b/artfynd/A 62534-2022.xlsx
@@ -2060,7 +2060,7 @@
     </row>
     <row r="14">
       <c r="A14" t="n">
-        <v>105935845</v>
+        <v>106206412</v>
       </c>
       <c r="B14" t="n">
         <v>78569</v>
@@ -2094,20 +2094,22 @@
         </is>
       </c>
       <c r="I14" t="inlineStr"/>
+      <c r="J14" t="inlineStr"/>
       <c r="K14" t="inlineStr"/>
+      <c r="N14" t="inlineStr"/>
       <c r="P14" t="inlineStr">
         <is>
-          <t>Gärddajávrre, Lu lm</t>
+          <t>Ängesträsket, Lu lm</t>
         </is>
       </c>
       <c r="Q14" t="n">
-        <v>738348.1616811801</v>
+        <v>737761.2213930943</v>
       </c>
       <c r="R14" t="n">
-        <v>7364365.03505854</v>
+        <v>7365049.175882609</v>
       </c>
       <c r="S14" t="n">
-        <v>25</v>
+        <v>10</v>
       </c>
       <c r="T14" t="inlineStr">
         <is>
@@ -2131,7 +2133,7 @@
       </c>
       <c r="Y14" t="inlineStr">
         <is>
-          <t>2023-01-11</t>
+          <t>2023-01-28</t>
         </is>
       </c>
       <c r="Z14" t="inlineStr">
@@ -2141,7 +2143,7 @@
       </c>
       <c r="AA14" t="inlineStr">
         <is>
-          <t>2023-01-11</t>
+          <t>2023-01-28</t>
         </is>
       </c>
       <c r="AB14" t="inlineStr">
@@ -2155,28 +2157,29 @@
       <c r="AE14" t="b">
         <v>0</v>
       </c>
+      <c r="AF14" t="inlineStr"/>
       <c r="AG14" t="b">
         <v>0</v>
       </c>
       <c r="AT14" t="inlineStr"/>
       <c r="AW14" t="inlineStr">
         <is>
-          <t>Cecilia Lundin</t>
+          <t>Ida Jansson</t>
         </is>
       </c>
       <c r="AX14" t="inlineStr">
         <is>
-          <t>Cecilia Lundin</t>
+          <t>Ida Jansson, Cecilia Lundin</t>
         </is>
       </c>
       <c r="AY14" t="inlineStr"/>
     </row>
     <row r="15">
       <c r="A15" t="n">
-        <v>105936111</v>
+        <v>106206411</v>
       </c>
       <c r="B15" t="n">
-        <v>89952</v>
+        <v>78569</v>
       </c>
       <c r="C15" t="inlineStr">
         <is>
@@ -2185,51 +2188,44 @@
       </c>
       <c r="D15" t="inlineStr">
         <is>
-          <t>VU</t>
+          <t>NT</t>
         </is>
       </c>
       <c r="E15" t="n">
-        <v>760</v>
+        <v>6458</v>
       </c>
       <c r="F15" t="inlineStr">
         <is>
-          <t>Doftticka</t>
+          <t>Lunglav</t>
         </is>
       </c>
       <c r="G15" t="inlineStr">
         <is>
-          <t>Haploporus odorus</t>
+          <t>Lobaria pulmonaria</t>
         </is>
       </c>
       <c r="H15" t="inlineStr">
         <is>
-          <t>(Sommerf.) Bondartsev &amp; Singer</t>
-        </is>
-      </c>
-      <c r="I15" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-      <c r="J15" t="inlineStr">
-        <is>
-          <t>fruktkroppar</t>
-        </is>
-      </c>
+          <t>(L.) Hoffm.</t>
+        </is>
+      </c>
+      <c r="I15" t="inlineStr"/>
+      <c r="J15" t="inlineStr"/>
       <c r="K15" t="inlineStr"/>
+      <c r="N15" t="inlineStr"/>
       <c r="P15" t="inlineStr">
         <is>
-          <t>Klingermyran, Lu lm</t>
+          <t>Ängesträsket, Lu lm</t>
         </is>
       </c>
       <c r="Q15" t="n">
-        <v>738201.955585609</v>
+        <v>737733.4806886462</v>
       </c>
       <c r="R15" t="n">
-        <v>7364362.268055818</v>
+        <v>7365109.028275046</v>
       </c>
       <c r="S15" t="n">
-        <v>25</v>
+        <v>10</v>
       </c>
       <c r="T15" t="inlineStr">
         <is>
@@ -2253,7 +2249,7 @@
       </c>
       <c r="Y15" t="inlineStr">
         <is>
-          <t>2023-01-11</t>
+          <t>2023-01-28</t>
         </is>
       </c>
       <c r="Z15" t="inlineStr">
@@ -2263,7 +2259,7 @@
       </c>
       <c r="AA15" t="inlineStr">
         <is>
-          <t>2023-01-11</t>
+          <t>2023-01-28</t>
         </is>
       </c>
       <c r="AB15" t="inlineStr">
@@ -2277,28 +2273,29 @@
       <c r="AE15" t="b">
         <v>0</v>
       </c>
+      <c r="AF15" t="inlineStr"/>
       <c r="AG15" t="b">
         <v>0</v>
       </c>
       <c r="AT15" t="inlineStr"/>
       <c r="AW15" t="inlineStr">
         <is>
-          <t>Cecilia Lundin</t>
+          <t>Ida Jansson</t>
         </is>
       </c>
       <c r="AX15" t="inlineStr">
         <is>
-          <t>Cecilia Lundin</t>
+          <t>Ida Jansson, Cecilia Lundin</t>
         </is>
       </c>
       <c r="AY15" t="inlineStr"/>
     </row>
     <row r="16">
       <c r="A16" t="n">
-        <v>105929847</v>
+        <v>106206421</v>
       </c>
       <c r="B16" t="n">
-        <v>78602</v>
+        <v>77506</v>
       </c>
       <c r="C16" t="inlineStr">
         <is>
@@ -2307,20 +2304,20 @@
       </c>
       <c r="D16" t="inlineStr">
         <is>
-          <t>LC</t>
+          <t>NT</t>
         </is>
       </c>
       <c r="E16" t="n">
-        <v>6463</v>
+        <v>6425</v>
       </c>
       <c r="F16" t="inlineStr">
         <is>
-          <t>Bårdlav</t>
+          <t>Garnlav</t>
         </is>
       </c>
       <c r="G16" t="inlineStr">
         <is>
-          <t>Nephroma parile</t>
+          <t>Alectoria sarmentosa</t>
         </is>
       </c>
       <c r="H16" t="inlineStr">
@@ -2329,20 +2326,22 @@
         </is>
       </c>
       <c r="I16" t="inlineStr"/>
+      <c r="J16" t="inlineStr"/>
       <c r="K16" t="inlineStr"/>
+      <c r="N16" t="inlineStr"/>
       <c r="P16" t="inlineStr">
         <is>
-          <t>Gärddajávrre, Lu lm</t>
+          <t>Ängesträsket, Lu lm</t>
         </is>
       </c>
       <c r="Q16" t="n">
-        <v>738369.0043838</v>
+        <v>737526.212296244</v>
       </c>
       <c r="R16" t="n">
-        <v>7364443.186249703</v>
+        <v>7365211.376587532</v>
       </c>
       <c r="S16" t="n">
-        <v>25</v>
+        <v>10</v>
       </c>
       <c r="T16" t="inlineStr">
         <is>
@@ -2366,7 +2365,7 @@
       </c>
       <c r="Y16" t="inlineStr">
         <is>
-          <t>2023-01-11</t>
+          <t>2023-01-28</t>
         </is>
       </c>
       <c r="Z16" t="inlineStr">
@@ -2376,7 +2375,7 @@
       </c>
       <c r="AA16" t="inlineStr">
         <is>
-          <t>2023-01-11</t>
+          <t>2023-01-28</t>
         </is>
       </c>
       <c r="AB16" t="inlineStr">
@@ -2390,25 +2389,26 @@
       <c r="AE16" t="b">
         <v>0</v>
       </c>
+      <c r="AF16" t="inlineStr"/>
       <c r="AG16" t="b">
         <v>0</v>
       </c>
       <c r="AT16" t="inlineStr"/>
       <c r="AW16" t="inlineStr">
         <is>
-          <t>Cecilia Lundin</t>
+          <t>Ida Jansson</t>
         </is>
       </c>
       <c r="AX16" t="inlineStr">
         <is>
-          <t>Cecilia Lundin</t>
+          <t>Ida Jansson, Cecilia Lundin</t>
         </is>
       </c>
       <c r="AY16" t="inlineStr"/>
     </row>
     <row r="17">
       <c r="A17" t="n">
-        <v>105934447</v>
+        <v>106206406</v>
       </c>
       <c r="B17" t="n">
         <v>78596</v>
@@ -2442,20 +2442,22 @@
         </is>
       </c>
       <c r="I17" t="inlineStr"/>
+      <c r="J17" t="inlineStr"/>
       <c r="K17" t="inlineStr"/>
+      <c r="N17" t="inlineStr"/>
       <c r="P17" t="inlineStr">
         <is>
-          <t>Gärddajávrre, Lu lm</t>
+          <t>Ängesträsket, Lu lm</t>
         </is>
       </c>
       <c r="Q17" t="n">
-        <v>738452.6544351187</v>
+        <v>737782.0840574161</v>
       </c>
       <c r="R17" t="n">
-        <v>7364477.396252138</v>
+        <v>7365060.647002796</v>
       </c>
       <c r="S17" t="n">
-        <v>25</v>
+        <v>10</v>
       </c>
       <c r="T17" t="inlineStr">
         <is>
@@ -2479,7 +2481,7 @@
       </c>
       <c r="Y17" t="inlineStr">
         <is>
-          <t>2023-01-11</t>
+          <t>2023-01-28</t>
         </is>
       </c>
       <c r="Z17" t="inlineStr">
@@ -2489,7 +2491,7 @@
       </c>
       <c r="AA17" t="inlineStr">
         <is>
-          <t>2023-01-11</t>
+          <t>2023-01-28</t>
         </is>
       </c>
       <c r="AB17" t="inlineStr">
@@ -2503,28 +2505,29 @@
       <c r="AE17" t="b">
         <v>0</v>
       </c>
+      <c r="AF17" t="inlineStr"/>
       <c r="AG17" t="b">
         <v>0</v>
       </c>
       <c r="AT17" t="inlineStr"/>
       <c r="AW17" t="inlineStr">
         <is>
-          <t>Cecilia Lundin</t>
+          <t>Ida Jansson</t>
         </is>
       </c>
       <c r="AX17" t="inlineStr">
         <is>
-          <t>Cecilia Lundin</t>
+          <t>Ida Jansson, Cecilia Lundin</t>
         </is>
       </c>
       <c r="AY17" t="inlineStr"/>
     </row>
     <row r="18">
       <c r="A18" t="n">
-        <v>105936121</v>
+        <v>106208518</v>
       </c>
       <c r="B18" t="n">
-        <v>78596</v>
+        <v>77506</v>
       </c>
       <c r="C18" t="inlineStr">
         <is>
@@ -2533,42 +2536,41 @@
       </c>
       <c r="D18" t="inlineStr">
         <is>
-          <t>LC</t>
+          <t>NT</t>
         </is>
       </c>
       <c r="E18" t="n">
-        <v>6462</v>
+        <v>6425</v>
       </c>
       <c r="F18" t="inlineStr">
         <is>
-          <t>Stuplav</t>
+          <t>Garnlav</t>
         </is>
       </c>
       <c r="G18" t="inlineStr">
         <is>
-          <t>Nephroma bellum</t>
+          <t>Alectoria sarmentosa</t>
         </is>
       </c>
       <c r="H18" t="inlineStr">
         <is>
-          <t>(Spreng.) Tuck.</t>
+          <t>(Ach.) Ach.</t>
         </is>
       </c>
       <c r="I18" t="inlineStr"/>
-      <c r="K18" t="inlineStr"/>
       <c r="P18" t="inlineStr">
         <is>
-          <t>Klingermyran, Lu lm</t>
+          <t>Ängesträsket, Lu lm</t>
         </is>
       </c>
       <c r="Q18" t="n">
-        <v>738194.0600222222</v>
+        <v>737711.7128472899</v>
       </c>
       <c r="R18" t="n">
-        <v>7364359.978732177</v>
+        <v>7365098.692591581</v>
       </c>
       <c r="S18" t="n">
-        <v>25</v>
+        <v>10</v>
       </c>
       <c r="T18" t="inlineStr">
         <is>
@@ -2592,7 +2594,7 @@
       </c>
       <c r="Y18" t="inlineStr">
         <is>
-          <t>2023-01-11</t>
+          <t>2023-01-28</t>
         </is>
       </c>
       <c r="Z18" t="inlineStr">
@@ -2602,7 +2604,7 @@
       </c>
       <c r="AA18" t="inlineStr">
         <is>
-          <t>2023-01-11</t>
+          <t>2023-01-28</t>
         </is>
       </c>
       <c r="AB18" t="inlineStr">
@@ -2622,22 +2624,22 @@
       <c r="AT18" t="inlineStr"/>
       <c r="AW18" t="inlineStr">
         <is>
-          <t>Cecilia Lundin</t>
+          <t>Ida Jansson</t>
         </is>
       </c>
       <c r="AX18" t="inlineStr">
         <is>
-          <t>Cecilia Lundin</t>
+          <t>Ida Jansson, Cecilia Lundin</t>
         </is>
       </c>
       <c r="AY18" t="inlineStr"/>
     </row>
     <row r="19">
       <c r="A19" t="n">
-        <v>105934583</v>
+        <v>106208512</v>
       </c>
       <c r="B19" t="n">
-        <v>77506</v>
+        <v>78569</v>
       </c>
       <c r="C19" t="inlineStr">
         <is>
@@ -2650,38 +2652,37 @@
         </is>
       </c>
       <c r="E19" t="n">
-        <v>6425</v>
+        <v>6458</v>
       </c>
       <c r="F19" t="inlineStr">
         <is>
-          <t>Garnlav</t>
+          <t>Lunglav</t>
         </is>
       </c>
       <c r="G19" t="inlineStr">
         <is>
-          <t>Alectoria sarmentosa</t>
+          <t>Lobaria pulmonaria</t>
         </is>
       </c>
       <c r="H19" t="inlineStr">
         <is>
-          <t>(Ach.) Ach.</t>
+          <t>(L.) Hoffm.</t>
         </is>
       </c>
       <c r="I19" t="inlineStr"/>
-      <c r="K19" t="inlineStr"/>
       <c r="P19" t="inlineStr">
         <is>
-          <t>Gärddajávrre, Lu lm</t>
+          <t>Ängesträsket, Lu lm</t>
         </is>
       </c>
       <c r="Q19" t="n">
-        <v>738438.5299549168</v>
+        <v>737727.187100514</v>
       </c>
       <c r="R19" t="n">
-        <v>7364476.99927013</v>
+        <v>7365130.7113351</v>
       </c>
       <c r="S19" t="n">
-        <v>25</v>
+        <v>10</v>
       </c>
       <c r="T19" t="inlineStr">
         <is>
@@ -2705,7 +2706,7 @@
       </c>
       <c r="Y19" t="inlineStr">
         <is>
-          <t>2023-01-11</t>
+          <t>2023-01-28</t>
         </is>
       </c>
       <c r="Z19" t="inlineStr">
@@ -2715,7 +2716,7 @@
       </c>
       <c r="AA19" t="inlineStr">
         <is>
-          <t>2023-01-11</t>
+          <t>2023-01-28</t>
         </is>
       </c>
       <c r="AB19" t="inlineStr">
@@ -2735,19 +2736,19 @@
       <c r="AT19" t="inlineStr"/>
       <c r="AW19" t="inlineStr">
         <is>
-          <t>Cecilia Lundin</t>
+          <t>Ida Jansson</t>
         </is>
       </c>
       <c r="AX19" t="inlineStr">
         <is>
-          <t>Cecilia Lundin</t>
+          <t>Ida Jansson, Cecilia Lundin</t>
         </is>
       </c>
       <c r="AY19" t="inlineStr"/>
     </row>
     <row r="20">
       <c r="A20" t="n">
-        <v>106206412</v>
+        <v>106208516</v>
       </c>
       <c r="B20" t="n">
         <v>78569</v>
@@ -2781,19 +2782,16 @@
         </is>
       </c>
       <c r="I20" t="inlineStr"/>
-      <c r="J20" t="inlineStr"/>
-      <c r="K20" t="inlineStr"/>
-      <c r="N20" t="inlineStr"/>
       <c r="P20" t="inlineStr">
         <is>
           <t>Ängesträsket, Lu lm</t>
         </is>
       </c>
       <c r="Q20" t="n">
-        <v>737761.2213930943</v>
+        <v>737773.5058306307</v>
       </c>
       <c r="R20" t="n">
-        <v>7365049.175882609</v>
+        <v>7365047.39341244</v>
       </c>
       <c r="S20" t="n">
         <v>10</v>
@@ -2844,7 +2842,6 @@
       <c r="AE20" t="b">
         <v>0</v>
       </c>
-      <c r="AF20" t="inlineStr"/>
       <c r="AG20" t="b">
         <v>0</v>
       </c>
@@ -2863,10 +2860,10 @@
     </row>
     <row r="21">
       <c r="A21" t="n">
-        <v>106206551</v>
+        <v>106208515</v>
       </c>
       <c r="B21" t="n">
-        <v>89952</v>
+        <v>78569</v>
       </c>
       <c r="C21" t="inlineStr">
         <is>
@@ -2875,47 +2872,38 @@
       </c>
       <c r="D21" t="inlineStr">
         <is>
-          <t>VU</t>
+          <t>NT</t>
         </is>
       </c>
       <c r="E21" t="n">
-        <v>760</v>
+        <v>6458</v>
       </c>
       <c r="F21" t="inlineStr">
         <is>
-          <t>Doftticka</t>
+          <t>Lunglav</t>
         </is>
       </c>
       <c r="G21" t="inlineStr">
         <is>
-          <t>Haploporus odorus</t>
+          <t>Lobaria pulmonaria</t>
         </is>
       </c>
       <c r="H21" t="inlineStr">
         <is>
-          <t>(Sommerf.) Bondartsev &amp; Singer</t>
-        </is>
-      </c>
-      <c r="I21" t="inlineStr">
-        <is>
-          <t>4</t>
-        </is>
-      </c>
-      <c r="J21" t="inlineStr">
-        <is>
-          <t>fruktkroppar</t>
-        </is>
-      </c>
+          <t>(L.) Hoffm.</t>
+        </is>
+      </c>
+      <c r="I21" t="inlineStr"/>
       <c r="P21" t="inlineStr">
         <is>
           <t>Ängesträsket, Lu lm</t>
         </is>
       </c>
       <c r="Q21" t="n">
-        <v>738197.204571742</v>
+        <v>737789.0382435257</v>
       </c>
       <c r="R21" t="n">
-        <v>7364361.054931134</v>
+        <v>7365064.47073733</v>
       </c>
       <c r="S21" t="n">
         <v>10</v>
@@ -2984,10 +2972,10 @@
     </row>
     <row r="22">
       <c r="A22" t="n">
-        <v>106206414</v>
+        <v>106208513</v>
       </c>
       <c r="B22" t="n">
-        <v>78603</v>
+        <v>78602</v>
       </c>
       <c r="C22" t="inlineStr">
         <is>
@@ -3000,37 +2988,34 @@
         </is>
       </c>
       <c r="E22" t="n">
-        <v>6464</v>
+        <v>6463</v>
       </c>
       <c r="F22" t="inlineStr">
         <is>
-          <t>Luddlav</t>
+          <t>Bårdlav</t>
         </is>
       </c>
       <c r="G22" t="inlineStr">
         <is>
-          <t>Nephroma resupinatum</t>
+          <t>Nephroma parile</t>
         </is>
       </c>
       <c r="H22" t="inlineStr">
         <is>
-          <t>(L.) Ach.</t>
+          <t>(Ach.) Ach.</t>
         </is>
       </c>
       <c r="I22" t="inlineStr"/>
-      <c r="J22" t="inlineStr"/>
-      <c r="K22" t="inlineStr"/>
-      <c r="N22" t="inlineStr"/>
       <c r="P22" t="inlineStr">
         <is>
           <t>Ängesträsket, Lu lm</t>
         </is>
       </c>
       <c r="Q22" t="n">
-        <v>737970.0160998622</v>
+        <v>737727.187100514</v>
       </c>
       <c r="R22" t="n">
-        <v>7364986.15330808</v>
+        <v>7365130.7113351</v>
       </c>
       <c r="S22" t="n">
         <v>10</v>
@@ -3081,7 +3066,6 @@
       <c r="AE22" t="b">
         <v>0</v>
       </c>
-      <c r="AF22" t="inlineStr"/>
       <c r="AG22" t="b">
         <v>0</v>
       </c>
@@ -3100,10 +3084,10 @@
     </row>
     <row r="23">
       <c r="A23" t="n">
-        <v>106206411</v>
+        <v>109972789</v>
       </c>
       <c r="B23" t="n">
-        <v>78569</v>
+        <v>77259</v>
       </c>
       <c r="C23" t="inlineStr">
         <is>
@@ -3116,40 +3100,37 @@
         </is>
       </c>
       <c r="E23" t="n">
-        <v>6458</v>
+        <v>228912</v>
       </c>
       <c r="F23" t="inlineStr">
         <is>
-          <t>Lunglav</t>
+          <t>Mörk kolflarnlav</t>
         </is>
       </c>
       <c r="G23" t="inlineStr">
         <is>
-          <t>Lobaria pulmonaria</t>
+          <t>Carbonicola myrmecina</t>
         </is>
       </c>
       <c r="H23" t="inlineStr">
         <is>
-          <t>(L.) Hoffm.</t>
+          <t>(Ach.) Bendiksby &amp; Timdal</t>
         </is>
       </c>
       <c r="I23" t="inlineStr"/>
-      <c r="J23" t="inlineStr"/>
-      <c r="K23" t="inlineStr"/>
-      <c r="N23" t="inlineStr"/>
       <c r="P23" t="inlineStr">
         <is>
           <t>Ängesträsket, Lu lm</t>
         </is>
       </c>
       <c r="Q23" t="n">
-        <v>737733.4806886462</v>
+        <v>737556.2356602531</v>
       </c>
       <c r="R23" t="n">
-        <v>7365109.028275046</v>
+        <v>7365143.640109975</v>
       </c>
       <c r="S23" t="n">
-        <v>10</v>
+        <v>20</v>
       </c>
       <c r="T23" t="inlineStr">
         <is>
@@ -3173,7 +3154,7 @@
       </c>
       <c r="Y23" t="inlineStr">
         <is>
-          <t>2023-01-28</t>
+          <t>2023-06-10</t>
         </is>
       </c>
       <c r="Z23" t="inlineStr">
@@ -3183,7 +3164,7 @@
       </c>
       <c r="AA23" t="inlineStr">
         <is>
-          <t>2023-01-28</t>
+          <t>2023-06-10</t>
         </is>
       </c>
       <c r="AB23" t="inlineStr">
@@ -3204,22 +3185,22 @@
       <c r="AT23" t="inlineStr"/>
       <c r="AW23" t="inlineStr">
         <is>
-          <t>Ida Jansson</t>
+          <t>Amanda Tas</t>
         </is>
       </c>
       <c r="AX23" t="inlineStr">
         <is>
-          <t>Ida Jansson, Cecilia Lundin</t>
+          <t>Cecilia Lundin</t>
         </is>
       </c>
       <c r="AY23" t="inlineStr"/>
     </row>
     <row r="24">
       <c r="A24" t="n">
-        <v>106206421</v>
+        <v>109972795</v>
       </c>
       <c r="B24" t="n">
-        <v>77506</v>
+        <v>78527</v>
       </c>
       <c r="C24" t="inlineStr">
         <is>
@@ -3228,44 +3209,41 @@
       </c>
       <c r="D24" t="inlineStr">
         <is>
-          <t>NT</t>
+          <t>LC</t>
         </is>
       </c>
       <c r="E24" t="n">
-        <v>6425</v>
+        <v>229497</v>
       </c>
       <c r="F24" t="inlineStr">
         <is>
-          <t>Garnlav</t>
+          <t>Korallblylav</t>
         </is>
       </c>
       <c r="G24" t="inlineStr">
         <is>
-          <t>Alectoria sarmentosa</t>
+          <t>Parmeliella triptophylla</t>
         </is>
       </c>
       <c r="H24" t="inlineStr">
         <is>
-          <t>(Ach.) Ach.</t>
+          <t>(Ach.) Müll.Arg.</t>
         </is>
       </c>
       <c r="I24" t="inlineStr"/>
-      <c r="J24" t="inlineStr"/>
-      <c r="K24" t="inlineStr"/>
-      <c r="N24" t="inlineStr"/>
       <c r="P24" t="inlineStr">
         <is>
           <t>Ängesträsket, Lu lm</t>
         </is>
       </c>
       <c r="Q24" t="n">
-        <v>737526.212296244</v>
+        <v>737673.8844158245</v>
       </c>
       <c r="R24" t="n">
-        <v>7365211.376587532</v>
+        <v>7365086.990749126</v>
       </c>
       <c r="S24" t="n">
-        <v>10</v>
+        <v>20</v>
       </c>
       <c r="T24" t="inlineStr">
         <is>
@@ -3289,7 +3267,7 @@
       </c>
       <c r="Y24" t="inlineStr">
         <is>
-          <t>2023-01-28</t>
+          <t>2023-06-10</t>
         </is>
       </c>
       <c r="Z24" t="inlineStr">
@@ -3299,7 +3277,7 @@
       </c>
       <c r="AA24" t="inlineStr">
         <is>
-          <t>2023-01-28</t>
+          <t>2023-06-10</t>
         </is>
       </c>
       <c r="AB24" t="inlineStr">
@@ -3313,29 +3291,28 @@
       <c r="AE24" t="b">
         <v>0</v>
       </c>
-      <c r="AF24" t="inlineStr"/>
       <c r="AG24" t="b">
         <v>0</v>
       </c>
       <c r="AT24" t="inlineStr"/>
       <c r="AW24" t="inlineStr">
         <is>
-          <t>Ida Jansson</t>
+          <t>Amanda Tas</t>
         </is>
       </c>
       <c r="AX24" t="inlineStr">
         <is>
-          <t>Ida Jansson, Cecilia Lundin</t>
+          <t>Cecilia Lundin</t>
         </is>
       </c>
       <c r="AY24" t="inlineStr"/>
     </row>
     <row r="25">
       <c r="A25" t="n">
-        <v>106206488</v>
+        <v>109972799</v>
       </c>
       <c r="B25" t="n">
-        <v>77506</v>
+        <v>90653</v>
       </c>
       <c r="C25" t="inlineStr">
         <is>
@@ -3344,44 +3321,41 @@
       </c>
       <c r="D25" t="inlineStr">
         <is>
-          <t>NT</t>
+          <t>LC</t>
         </is>
       </c>
       <c r="E25" t="n">
-        <v>6425</v>
+        <v>4364</v>
       </c>
       <c r="F25" t="inlineStr">
         <is>
-          <t>Garnlav</t>
+          <t>Dropptaggsvamp</t>
         </is>
       </c>
       <c r="G25" t="inlineStr">
         <is>
-          <t>Alectoria sarmentosa</t>
+          <t>Hydnellum ferrugineum</t>
         </is>
       </c>
       <c r="H25" t="inlineStr">
         <is>
-          <t>(Ach.) Ach.</t>
+          <t>(Fr.:Fr.) P. Karst.</t>
         </is>
       </c>
       <c r="I25" t="inlineStr"/>
-      <c r="J25" t="inlineStr"/>
-      <c r="K25" t="inlineStr"/>
-      <c r="N25" t="inlineStr"/>
       <c r="P25" t="inlineStr">
         <is>
           <t>Ängesträsket, Lu lm</t>
         </is>
       </c>
       <c r="Q25" t="n">
-        <v>737949.0998649971</v>
+        <v>737558.2927393621</v>
       </c>
       <c r="R25" t="n">
-        <v>7364908.823014701</v>
+        <v>7365133.715847082</v>
       </c>
       <c r="S25" t="n">
-        <v>10</v>
+        <v>20</v>
       </c>
       <c r="T25" t="inlineStr">
         <is>
@@ -3405,7 +3379,7 @@
       </c>
       <c r="Y25" t="inlineStr">
         <is>
-          <t>2023-01-28</t>
+          <t>2023-06-10</t>
         </is>
       </c>
       <c r="Z25" t="inlineStr">
@@ -3415,7 +3389,7 @@
       </c>
       <c r="AA25" t="inlineStr">
         <is>
-          <t>2023-01-28</t>
+          <t>2023-06-10</t>
         </is>
       </c>
       <c r="AB25" t="inlineStr">
@@ -3423,35 +3397,39 @@
           <t>00:00</t>
         </is>
       </c>
+      <c r="AC25" t="inlineStr">
+        <is>
+          <t>6 exemplar</t>
+        </is>
+      </c>
       <c r="AD25" t="b">
         <v>0</v>
       </c>
       <c r="AE25" t="b">
         <v>0</v>
       </c>
-      <c r="AF25" t="inlineStr"/>
       <c r="AG25" t="b">
         <v>0</v>
       </c>
       <c r="AT25" t="inlineStr"/>
       <c r="AW25" t="inlineStr">
         <is>
-          <t>Ida Jansson</t>
+          <t>Amanda Tas</t>
         </is>
       </c>
       <c r="AX25" t="inlineStr">
         <is>
-          <t>Ida Jansson, Cecilia Lundin</t>
+          <t>Cecilia Lundin</t>
         </is>
       </c>
       <c r="AY25" t="inlineStr"/>
     </row>
     <row r="26">
       <c r="A26" t="n">
-        <v>106206549</v>
+        <v>109972791</v>
       </c>
       <c r="B26" t="n">
-        <v>78603</v>
+        <v>78569</v>
       </c>
       <c r="C26" t="inlineStr">
         <is>
@@ -3460,25 +3438,25 @@
       </c>
       <c r="D26" t="inlineStr">
         <is>
-          <t>LC</t>
+          <t>NT</t>
         </is>
       </c>
       <c r="E26" t="n">
-        <v>6464</v>
+        <v>6458</v>
       </c>
       <c r="F26" t="inlineStr">
         <is>
-          <t>Luddlav</t>
+          <t>Lunglav</t>
         </is>
       </c>
       <c r="G26" t="inlineStr">
         <is>
-          <t>Nephroma resupinatum</t>
+          <t>Lobaria pulmonaria</t>
         </is>
       </c>
       <c r="H26" t="inlineStr">
         <is>
-          <t>(L.) Ach.</t>
+          <t>(L.) Hoffm.</t>
         </is>
       </c>
       <c r="I26" t="inlineStr"/>
@@ -3488,13 +3466,13 @@
         </is>
       </c>
       <c r="Q26" t="n">
-        <v>738308.5554542495</v>
+        <v>737673.8844158245</v>
       </c>
       <c r="R26" t="n">
-        <v>7364478.439287182</v>
+        <v>7365086.990749126</v>
       </c>
       <c r="S26" t="n">
-        <v>10</v>
+        <v>20</v>
       </c>
       <c r="T26" t="inlineStr">
         <is>
@@ -3518,7 +3496,7 @@
       </c>
       <c r="Y26" t="inlineStr">
         <is>
-          <t>2023-01-28</t>
+          <t>2023-06-10</t>
         </is>
       </c>
       <c r="Z26" t="inlineStr">
@@ -3528,7 +3506,7 @@
       </c>
       <c r="AA26" t="inlineStr">
         <is>
-          <t>2023-01-28</t>
+          <t>2023-06-10</t>
         </is>
       </c>
       <c r="AB26" t="inlineStr">
@@ -3548,22 +3526,22 @@
       <c r="AT26" t="inlineStr"/>
       <c r="AW26" t="inlineStr">
         <is>
-          <t>Ida Jansson</t>
+          <t>Amanda Tas</t>
         </is>
       </c>
       <c r="AX26" t="inlineStr">
         <is>
-          <t>Ida Jansson, Cecilia Lundin</t>
+          <t>Cecilia Lundin</t>
         </is>
       </c>
       <c r="AY26" t="inlineStr"/>
     </row>
     <row r="27">
       <c r="A27" t="n">
-        <v>106206548</v>
+        <v>109972792</v>
       </c>
       <c r="B27" t="n">
-        <v>78570</v>
+        <v>78603</v>
       </c>
       <c r="C27" t="inlineStr">
         <is>
@@ -3572,25 +3550,25 @@
       </c>
       <c r="D27" t="inlineStr">
         <is>
-          <t>NT</t>
+          <t>LC</t>
         </is>
       </c>
       <c r="E27" t="n">
-        <v>2081</v>
+        <v>6464</v>
       </c>
       <c r="F27" t="inlineStr">
         <is>
-          <t>Skrovellav</t>
+          <t>Luddlav</t>
         </is>
       </c>
       <c r="G27" t="inlineStr">
         <is>
-          <t>Lobaria scrobiculata</t>
+          <t>Nephroma resupinatum</t>
         </is>
       </c>
       <c r="H27" t="inlineStr">
         <is>
-          <t>(Scop.) DC.</t>
+          <t>(L.) Ach.</t>
         </is>
       </c>
       <c r="I27" t="inlineStr"/>
@@ -3600,13 +3578,13 @@
         </is>
       </c>
       <c r="Q27" t="n">
-        <v>738308.5554542495</v>
+        <v>737673.8844158245</v>
       </c>
       <c r="R27" t="n">
-        <v>7364478.439287182</v>
+        <v>7365086.990749126</v>
       </c>
       <c r="S27" t="n">
-        <v>10</v>
+        <v>20</v>
       </c>
       <c r="T27" t="inlineStr">
         <is>
@@ -3630,7 +3608,7 @@
       </c>
       <c r="Y27" t="inlineStr">
         <is>
-          <t>2023-01-28</t>
+          <t>2023-06-10</t>
         </is>
       </c>
       <c r="Z27" t="inlineStr">
@@ -3640,7 +3618,7 @@
       </c>
       <c r="AA27" t="inlineStr">
         <is>
-          <t>2023-01-28</t>
+          <t>2023-06-10</t>
         </is>
       </c>
       <c r="AB27" t="inlineStr">
@@ -3660,22 +3638,22 @@
       <c r="AT27" t="inlineStr"/>
       <c r="AW27" t="inlineStr">
         <is>
-          <t>Ida Jansson</t>
+          <t>Amanda Tas</t>
         </is>
       </c>
       <c r="AX27" t="inlineStr">
         <is>
-          <t>Ida Jansson, Cecilia Lundin</t>
+          <t>Cecilia Lundin</t>
         </is>
       </c>
       <c r="AY27" t="inlineStr"/>
     </row>
     <row r="28">
       <c r="A28" t="n">
-        <v>106206406</v>
+        <v>109972784</v>
       </c>
       <c r="B28" t="n">
-        <v>78596</v>
+        <v>78072</v>
       </c>
       <c r="C28" t="inlineStr">
         <is>
@@ -3684,44 +3662,41 @@
       </c>
       <c r="D28" t="inlineStr">
         <is>
-          <t>LC</t>
+          <t>NT</t>
         </is>
       </c>
       <c r="E28" t="n">
-        <v>6462</v>
+        <v>229821</v>
       </c>
       <c r="F28" t="inlineStr">
         <is>
-          <t>Stuplav</t>
+          <t>Vedflamlav</t>
         </is>
       </c>
       <c r="G28" t="inlineStr">
         <is>
-          <t>Nephroma bellum</t>
+          <t>Ramboldia elabens</t>
         </is>
       </c>
       <c r="H28" t="inlineStr">
         <is>
-          <t>(Spreng.) Tuck.</t>
+          <t>(Fr.) Kantvilas &amp; Elix</t>
         </is>
       </c>
       <c r="I28" t="inlineStr"/>
-      <c r="J28" t="inlineStr"/>
-      <c r="K28" t="inlineStr"/>
-      <c r="N28" t="inlineStr"/>
       <c r="P28" t="inlineStr">
         <is>
           <t>Ängesträsket, Lu lm</t>
         </is>
       </c>
       <c r="Q28" t="n">
-        <v>737782.0840574161</v>
+        <v>737536.9327365544</v>
       </c>
       <c r="R28" t="n">
-        <v>7365060.647002796</v>
+        <v>7365161.389157179</v>
       </c>
       <c r="S28" t="n">
-        <v>10</v>
+        <v>20</v>
       </c>
       <c r="T28" t="inlineStr">
         <is>
@@ -3745,7 +3720,7 @@
       </c>
       <c r="Y28" t="inlineStr">
         <is>
-          <t>2023-01-28</t>
+          <t>2023-06-10</t>
         </is>
       </c>
       <c r="Z28" t="inlineStr">
@@ -3755,7 +3730,7 @@
       </c>
       <c r="AA28" t="inlineStr">
         <is>
-          <t>2023-01-28</t>
+          <t>2023-06-10</t>
         </is>
       </c>
       <c r="AB28" t="inlineStr">
@@ -3769,29 +3744,28 @@
       <c r="AE28" t="b">
         <v>0</v>
       </c>
-      <c r="AF28" t="inlineStr"/>
       <c r="AG28" t="b">
         <v>0</v>
       </c>
       <c r="AT28" t="inlineStr"/>
       <c r="AW28" t="inlineStr">
         <is>
-          <t>Ida Jansson</t>
+          <t>Amanda Tas</t>
         </is>
       </c>
       <c r="AX28" t="inlineStr">
         <is>
-          <t>Ida Jansson, Cecilia Lundin</t>
+          <t>Cecilia Lundin</t>
         </is>
       </c>
       <c r="AY28" t="inlineStr"/>
     </row>
     <row r="29">
       <c r="A29" t="n">
-        <v>106206407</v>
+        <v>109972787</v>
       </c>
       <c r="B29" t="n">
-        <v>78569</v>
+        <v>95519</v>
       </c>
       <c r="C29" t="inlineStr">
         <is>
@@ -3800,44 +3774,41 @@
       </c>
       <c r="D29" t="inlineStr">
         <is>
-          <t>NT</t>
+          <t>LC</t>
         </is>
       </c>
       <c r="E29" t="n">
-        <v>6458</v>
+        <v>221945</v>
       </c>
       <c r="F29" t="inlineStr">
         <is>
-          <t>Lunglav</t>
+          <t>Revlummer</t>
         </is>
       </c>
       <c r="G29" t="inlineStr">
         <is>
-          <t>Lobaria pulmonaria</t>
+          <t>Lycopodium annotinum</t>
         </is>
       </c>
       <c r="H29" t="inlineStr">
         <is>
-          <t>(L.) Hoffm.</t>
+          <t>L.</t>
         </is>
       </c>
       <c r="I29" t="inlineStr"/>
-      <c r="J29" t="inlineStr"/>
-      <c r="K29" t="inlineStr"/>
-      <c r="N29" t="inlineStr"/>
       <c r="P29" t="inlineStr">
         <is>
           <t>Ängesträsket, Lu lm</t>
         </is>
       </c>
       <c r="Q29" t="n">
-        <v>738042.546184554</v>
+        <v>737720.0981711294</v>
       </c>
       <c r="R29" t="n">
-        <v>7364789.920203411</v>
+        <v>7365066.683736216</v>
       </c>
       <c r="S29" t="n">
-        <v>10</v>
+        <v>20</v>
       </c>
       <c r="T29" t="inlineStr">
         <is>
@@ -3861,7 +3832,7 @@
       </c>
       <c r="Y29" t="inlineStr">
         <is>
-          <t>2023-01-28</t>
+          <t>2023-06-10</t>
         </is>
       </c>
       <c r="Z29" t="inlineStr">
@@ -3871,7 +3842,7 @@
       </c>
       <c r="AA29" t="inlineStr">
         <is>
-          <t>2023-01-28</t>
+          <t>2023-06-10</t>
         </is>
       </c>
       <c r="AB29" t="inlineStr">
@@ -3885,29 +3856,28 @@
       <c r="AE29" t="b">
         <v>0</v>
       </c>
-      <c r="AF29" t="inlineStr"/>
       <c r="AG29" t="b">
         <v>0</v>
       </c>
       <c r="AT29" t="inlineStr"/>
       <c r="AW29" t="inlineStr">
         <is>
-          <t>Ida Jansson</t>
+          <t>Amanda Tas</t>
         </is>
       </c>
       <c r="AX29" t="inlineStr">
         <is>
-          <t>Ida Jansson, Cecilia Lundin</t>
+          <t>Cecilia Lundin</t>
         </is>
       </c>
       <c r="AY29" t="inlineStr"/>
     </row>
     <row r="30">
       <c r="A30" t="n">
-        <v>106206408</v>
+        <v>109972800</v>
       </c>
       <c r="B30" t="n">
-        <v>78603</v>
+        <v>76486</v>
       </c>
       <c r="C30" t="inlineStr">
         <is>
@@ -3916,44 +3886,41 @@
       </c>
       <c r="D30" t="inlineStr">
         <is>
-          <t>LC</t>
+          <t>NT</t>
         </is>
       </c>
       <c r="E30" t="n">
-        <v>6464</v>
+        <v>6487</v>
       </c>
       <c r="F30" t="inlineStr">
         <is>
-          <t>Luddlav</t>
+          <t>Blågrå svartspik</t>
         </is>
       </c>
       <c r="G30" t="inlineStr">
         <is>
-          <t>Nephroma resupinatum</t>
+          <t>Chaenothecopsis fennica</t>
         </is>
       </c>
       <c r="H30" t="inlineStr">
         <is>
-          <t>(L.) Ach.</t>
+          <t>(Laurila) Tibell</t>
         </is>
       </c>
       <c r="I30" t="inlineStr"/>
-      <c r="J30" t="inlineStr"/>
-      <c r="K30" t="inlineStr"/>
-      <c r="N30" t="inlineStr"/>
       <c r="P30" t="inlineStr">
         <is>
           <t>Ängesträsket, Lu lm</t>
         </is>
       </c>
       <c r="Q30" t="n">
-        <v>738042.546184554</v>
+        <v>737593.4857128032</v>
       </c>
       <c r="R30" t="n">
-        <v>7364789.920203411</v>
+        <v>7365119.337845408</v>
       </c>
       <c r="S30" t="n">
-        <v>10</v>
+        <v>20</v>
       </c>
       <c r="T30" t="inlineStr">
         <is>
@@ -3977,7 +3944,7 @@
       </c>
       <c r="Y30" t="inlineStr">
         <is>
-          <t>2023-01-28</t>
+          <t>2023-06-10</t>
         </is>
       </c>
       <c r="Z30" t="inlineStr">
@@ -3987,7 +3954,7 @@
       </c>
       <c r="AA30" t="inlineStr">
         <is>
-          <t>2023-01-28</t>
+          <t>2023-06-10</t>
         </is>
       </c>
       <c r="AB30" t="inlineStr">
@@ -4001,29 +3968,28 @@
       <c r="AE30" t="b">
         <v>0</v>
       </c>
-      <c r="AF30" t="inlineStr"/>
       <c r="AG30" t="b">
         <v>0</v>
       </c>
       <c r="AT30" t="inlineStr"/>
       <c r="AW30" t="inlineStr">
         <is>
-          <t>Ida Jansson</t>
+          <t>Amanda Tas</t>
         </is>
       </c>
       <c r="AX30" t="inlineStr">
         <is>
-          <t>Ida Jansson, Cecilia Lundin</t>
+          <t>Cecilia Lundin</t>
         </is>
       </c>
       <c r="AY30" t="inlineStr"/>
     </row>
     <row r="31">
       <c r="A31" t="n">
-        <v>106206417</v>
+        <v>109972790</v>
       </c>
       <c r="B31" t="n">
-        <v>77588</v>
+        <v>77259</v>
       </c>
       <c r="C31" t="inlineStr">
         <is>
@@ -4036,40 +4002,37 @@
         </is>
       </c>
       <c r="E31" t="n">
-        <v>864</v>
+        <v>228912</v>
       </c>
       <c r="F31" t="inlineStr">
         <is>
-          <t>Knottrig blåslav</t>
+          <t>Mörk kolflarnlav</t>
         </is>
       </c>
       <c r="G31" t="inlineStr">
         <is>
-          <t>Hypogymnia bitteri</t>
+          <t>Carbonicola myrmecina</t>
         </is>
       </c>
       <c r="H31" t="inlineStr">
         <is>
-          <t>(Lynge) Ahti</t>
+          <t>(Ach.) Bendiksby &amp; Timdal</t>
         </is>
       </c>
       <c r="I31" t="inlineStr"/>
-      <c r="J31" t="inlineStr"/>
-      <c r="K31" t="inlineStr"/>
-      <c r="N31" t="inlineStr"/>
       <c r="P31" t="inlineStr">
         <is>
           <t>Ängesträsket, Lu lm</t>
         </is>
       </c>
       <c r="Q31" t="n">
-        <v>738154.1886974263</v>
+        <v>737686.8010136466</v>
       </c>
       <c r="R31" t="n">
-        <v>7364737.615936293</v>
+        <v>7365087.281636368</v>
       </c>
       <c r="S31" t="n">
-        <v>10</v>
+        <v>20</v>
       </c>
       <c r="T31" t="inlineStr">
         <is>
@@ -4093,7 +4056,7 @@
       </c>
       <c r="Y31" t="inlineStr">
         <is>
-          <t>2023-01-28</t>
+          <t>2023-06-10</t>
         </is>
       </c>
       <c r="Z31" t="inlineStr">
@@ -4103,7 +4066,7 @@
       </c>
       <c r="AA31" t="inlineStr">
         <is>
-          <t>2023-01-28</t>
+          <t>2023-06-10</t>
         </is>
       </c>
       <c r="AB31" t="inlineStr">
@@ -4121,40 +4084,25 @@
       <c r="AG31" t="b">
         <v>0</v>
       </c>
-      <c r="AJ31" t="inlineStr">
-        <is>
-          <t>vårtbjörk</t>
-        </is>
-      </c>
-      <c r="AK31" t="inlineStr">
-        <is>
-          <t>Betula pendula</t>
-        </is>
-      </c>
-      <c r="AO31" t="inlineStr">
-        <is>
-          <t>Betula pendula</t>
-        </is>
-      </c>
       <c r="AT31" t="inlineStr"/>
       <c r="AW31" t="inlineStr">
         <is>
-          <t>Ida Jansson</t>
+          <t>Amanda Tas</t>
         </is>
       </c>
       <c r="AX31" t="inlineStr">
         <is>
-          <t>Ida Jansson, Cecilia Lundin</t>
+          <t>Cecilia Lundin</t>
         </is>
       </c>
       <c r="AY31" t="inlineStr"/>
     </row>
     <row r="32">
       <c r="A32" t="n">
-        <v>106206547</v>
+        <v>109972797</v>
       </c>
       <c r="B32" t="n">
-        <v>78569</v>
+        <v>96334</v>
       </c>
       <c r="C32" t="inlineStr">
         <is>
@@ -4163,25 +4111,25 @@
       </c>
       <c r="D32" t="inlineStr">
         <is>
-          <t>NT</t>
+          <t>VU</t>
         </is>
       </c>
       <c r="E32" t="n">
-        <v>6458</v>
+        <v>220787</v>
       </c>
       <c r="F32" t="inlineStr">
         <is>
-          <t>Lunglav</t>
+          <t>Knärot</t>
         </is>
       </c>
       <c r="G32" t="inlineStr">
         <is>
-          <t>Lobaria pulmonaria</t>
+          <t>Goodyera repens</t>
         </is>
       </c>
       <c r="H32" t="inlineStr">
         <is>
-          <t>(L.) Hoffm.</t>
+          <t>(L.) R. Br.</t>
         </is>
       </c>
       <c r="I32" t="inlineStr"/>
@@ -4191,13 +4139,13 @@
         </is>
       </c>
       <c r="Q32" t="n">
-        <v>738308.5554542495</v>
+        <v>737650.6413470295</v>
       </c>
       <c r="R32" t="n">
-        <v>7364478.439287182</v>
+        <v>7365098.748753224</v>
       </c>
       <c r="S32" t="n">
-        <v>10</v>
+        <v>20</v>
       </c>
       <c r="T32" t="inlineStr">
         <is>
@@ -4221,7 +4169,7 @@
       </c>
       <c r="Y32" t="inlineStr">
         <is>
-          <t>2023-01-28</t>
+          <t>2023-06-10</t>
         </is>
       </c>
       <c r="Z32" t="inlineStr">
@@ -4231,12 +4179,17 @@
       </c>
       <c r="AA32" t="inlineStr">
         <is>
-          <t>2023-01-28</t>
+          <t>2023-06-10</t>
         </is>
       </c>
       <c r="AB32" t="inlineStr">
         <is>
           <t>00:00</t>
+        </is>
+      </c>
+      <c r="AC32" t="inlineStr">
+        <is>
+          <t>Ca 220 exemplar</t>
         </is>
       </c>
       <c r="AD32" t="b">
@@ -4251,22 +4204,22 @@
       <c r="AT32" t="inlineStr"/>
       <c r="AW32" t="inlineStr">
         <is>
-          <t>Ida Jansson</t>
+          <t>Amanda Tas</t>
         </is>
       </c>
       <c r="AX32" t="inlineStr">
         <is>
-          <t>Ida Jansson, Cecilia Lundin</t>
+          <t>Cecilia Lundin</t>
         </is>
       </c>
       <c r="AY32" t="inlineStr"/>
     </row>
     <row r="33">
       <c r="A33" t="n">
-        <v>106206415</v>
+        <v>109972785</v>
       </c>
       <c r="B33" t="n">
-        <v>77588</v>
+        <v>78596</v>
       </c>
       <c r="C33" t="inlineStr">
         <is>
@@ -4275,44 +4228,41 @@
       </c>
       <c r="D33" t="inlineStr">
         <is>
-          <t>NT</t>
+          <t>LC</t>
         </is>
       </c>
       <c r="E33" t="n">
-        <v>864</v>
+        <v>6462</v>
       </c>
       <c r="F33" t="inlineStr">
         <is>
-          <t>Knottrig blåslav</t>
+          <t>Stuplav</t>
         </is>
       </c>
       <c r="G33" t="inlineStr">
         <is>
-          <t>Hypogymnia bitteri</t>
+          <t>Nephroma bellum</t>
         </is>
       </c>
       <c r="H33" t="inlineStr">
         <is>
-          <t>(Lynge) Ahti</t>
+          <t>(Spreng.) Tuck.</t>
         </is>
       </c>
       <c r="I33" t="inlineStr"/>
-      <c r="J33" t="inlineStr"/>
-      <c r="K33" t="inlineStr"/>
-      <c r="N33" t="inlineStr"/>
       <c r="P33" t="inlineStr">
         <is>
           <t>Ängesträsket, Lu lm</t>
         </is>
       </c>
       <c r="Q33" t="n">
-        <v>737939.9077688311</v>
+        <v>737673.8844158245</v>
       </c>
       <c r="R33" t="n">
-        <v>7364921.776521774</v>
+        <v>7365086.990749126</v>
       </c>
       <c r="S33" t="n">
-        <v>10</v>
+        <v>20</v>
       </c>
       <c r="T33" t="inlineStr">
         <is>
@@ -4336,7 +4286,7 @@
       </c>
       <c r="Y33" t="inlineStr">
         <is>
-          <t>2023-01-28</t>
+          <t>2023-06-10</t>
         </is>
       </c>
       <c r="Z33" t="inlineStr">
@@ -4346,7 +4296,7 @@
       </c>
       <c r="AA33" t="inlineStr">
         <is>
-          <t>2023-01-28</t>
+          <t>2023-06-10</t>
         </is>
       </c>
       <c r="AB33" t="inlineStr">
@@ -4360,26 +4310,25 @@
       <c r="AE33" t="b">
         <v>0</v>
       </c>
-      <c r="AF33" t="inlineStr"/>
       <c r="AG33" t="b">
         <v>0</v>
       </c>
       <c r="AT33" t="inlineStr"/>
       <c r="AW33" t="inlineStr">
         <is>
-          <t>Ida Jansson</t>
+          <t>Amanda Tas</t>
         </is>
       </c>
       <c r="AX33" t="inlineStr">
         <is>
-          <t>Ida Jansson, Cecilia Lundin</t>
+          <t>Cecilia Lundin</t>
         </is>
       </c>
       <c r="AY33" t="inlineStr"/>
     </row>
     <row r="34">
       <c r="A34" t="n">
-        <v>106206413</v>
+        <v>105935845</v>
       </c>
       <c r="B34" t="n">
         <v>78569</v>
@@ -4413,22 +4362,20 @@
         </is>
       </c>
       <c r="I34" t="inlineStr"/>
-      <c r="J34" t="inlineStr"/>
       <c r="K34" t="inlineStr"/>
-      <c r="N34" t="inlineStr"/>
       <c r="P34" t="inlineStr">
         <is>
-          <t>Ängesträsket, Lu lm</t>
+          <t>Gärddajávrre, Lu lm</t>
         </is>
       </c>
       <c r="Q34" t="n">
-        <v>738046.835428426</v>
+        <v>738348.1616811801</v>
       </c>
       <c r="R34" t="n">
-        <v>7364844.021036916</v>
+        <v>7364365.03505854</v>
       </c>
       <c r="S34" t="n">
-        <v>10</v>
+        <v>25</v>
       </c>
       <c r="T34" t="inlineStr">
         <is>
@@ -4452,7 +4399,7 @@
       </c>
       <c r="Y34" t="inlineStr">
         <is>
-          <t>2023-01-28</t>
+          <t>2023-01-11</t>
         </is>
       </c>
       <c r="Z34" t="inlineStr">
@@ -4462,7 +4409,7 @@
       </c>
       <c r="AA34" t="inlineStr">
         <is>
-          <t>2023-01-28</t>
+          <t>2023-01-11</t>
         </is>
       </c>
       <c r="AB34" t="inlineStr">
@@ -4476,29 +4423,28 @@
       <c r="AE34" t="b">
         <v>0</v>
       </c>
-      <c r="AF34" t="inlineStr"/>
       <c r="AG34" t="b">
         <v>0</v>
       </c>
       <c r="AT34" t="inlineStr"/>
       <c r="AW34" t="inlineStr">
         <is>
-          <t>Ida Jansson</t>
+          <t>Cecilia Lundin</t>
         </is>
       </c>
       <c r="AX34" t="inlineStr">
         <is>
-          <t>Ida Jansson, Cecilia Lundin</t>
+          <t>Cecilia Lundin</t>
         </is>
       </c>
       <c r="AY34" t="inlineStr"/>
     </row>
     <row r="35">
       <c r="A35" t="n">
-        <v>106206416</v>
+        <v>105936111</v>
       </c>
       <c r="B35" t="n">
-        <v>77588</v>
+        <v>89952</v>
       </c>
       <c r="C35" t="inlineStr">
         <is>
@@ -4507,44 +4453,51 @@
       </c>
       <c r="D35" t="inlineStr">
         <is>
-          <t>NT</t>
+          <t>VU</t>
         </is>
       </c>
       <c r="E35" t="n">
-        <v>864</v>
+        <v>760</v>
       </c>
       <c r="F35" t="inlineStr">
         <is>
-          <t>Knottrig blåslav</t>
+          <t>Doftticka</t>
         </is>
       </c>
       <c r="G35" t="inlineStr">
         <is>
-          <t>Hypogymnia bitteri</t>
+          <t>Haploporus odorus</t>
         </is>
       </c>
       <c r="H35" t="inlineStr">
         <is>
-          <t>(Lynge) Ahti</t>
-        </is>
-      </c>
-      <c r="I35" t="inlineStr"/>
-      <c r="J35" t="inlineStr"/>
+          <t>(Sommerf.) Bondartsev &amp; Singer</t>
+        </is>
+      </c>
+      <c r="I35" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
+      <c r="J35" t="inlineStr">
+        <is>
+          <t>fruktkroppar</t>
+        </is>
+      </c>
       <c r="K35" t="inlineStr"/>
-      <c r="N35" t="inlineStr"/>
       <c r="P35" t="inlineStr">
         <is>
-          <t>Ängesträsket, Lu lm</t>
+          <t>Klingermyran, Lu lm</t>
         </is>
       </c>
       <c r="Q35" t="n">
-        <v>738168.4491733313</v>
+        <v>738201.955585609</v>
       </c>
       <c r="R35" t="n">
-        <v>7364717.417170158</v>
+        <v>7364362.268055818</v>
       </c>
       <c r="S35" t="n">
-        <v>10</v>
+        <v>25</v>
       </c>
       <c r="T35" t="inlineStr">
         <is>
@@ -4568,7 +4521,7 @@
       </c>
       <c r="Y35" t="inlineStr">
         <is>
-          <t>2023-01-28</t>
+          <t>2023-01-11</t>
         </is>
       </c>
       <c r="Z35" t="inlineStr">
@@ -4578,7 +4531,7 @@
       </c>
       <c r="AA35" t="inlineStr">
         <is>
-          <t>2023-01-28</t>
+          <t>2023-01-11</t>
         </is>
       </c>
       <c r="AB35" t="inlineStr">
@@ -4592,29 +4545,28 @@
       <c r="AE35" t="b">
         <v>0</v>
       </c>
-      <c r="AF35" t="inlineStr"/>
       <c r="AG35" t="b">
         <v>0</v>
       </c>
       <c r="AT35" t="inlineStr"/>
       <c r="AW35" t="inlineStr">
         <is>
-          <t>Ida Jansson</t>
+          <t>Cecilia Lundin</t>
         </is>
       </c>
       <c r="AX35" t="inlineStr">
         <is>
-          <t>Ida Jansson, Cecilia Lundin</t>
+          <t>Cecilia Lundin</t>
         </is>
       </c>
       <c r="AY35" t="inlineStr"/>
     </row>
     <row r="36">
       <c r="A36" t="n">
-        <v>106208518</v>
+        <v>105929847</v>
       </c>
       <c r="B36" t="n">
-        <v>77506</v>
+        <v>78602</v>
       </c>
       <c r="C36" t="inlineStr">
         <is>
@@ -4623,20 +4575,20 @@
       </c>
       <c r="D36" t="inlineStr">
         <is>
-          <t>NT</t>
+          <t>LC</t>
         </is>
       </c>
       <c r="E36" t="n">
-        <v>6425</v>
+        <v>6463</v>
       </c>
       <c r="F36" t="inlineStr">
         <is>
-          <t>Garnlav</t>
+          <t>Bårdlav</t>
         </is>
       </c>
       <c r="G36" t="inlineStr">
         <is>
-          <t>Alectoria sarmentosa</t>
+          <t>Nephroma parile</t>
         </is>
       </c>
       <c r="H36" t="inlineStr">
@@ -4645,19 +4597,20 @@
         </is>
       </c>
       <c r="I36" t="inlineStr"/>
+      <c r="K36" t="inlineStr"/>
       <c r="P36" t="inlineStr">
         <is>
-          <t>Ängesträsket, Lu lm</t>
+          <t>Gärddajávrre, Lu lm</t>
         </is>
       </c>
       <c r="Q36" t="n">
-        <v>737711.7128472899</v>
+        <v>738369.0043838</v>
       </c>
       <c r="R36" t="n">
-        <v>7365098.692591581</v>
+        <v>7364443.186249703</v>
       </c>
       <c r="S36" t="n">
-        <v>10</v>
+        <v>25</v>
       </c>
       <c r="T36" t="inlineStr">
         <is>
@@ -4681,7 +4634,7 @@
       </c>
       <c r="Y36" t="inlineStr">
         <is>
-          <t>2023-01-28</t>
+          <t>2023-01-11</t>
         </is>
       </c>
       <c r="Z36" t="inlineStr">
@@ -4691,7 +4644,7 @@
       </c>
       <c r="AA36" t="inlineStr">
         <is>
-          <t>2023-01-28</t>
+          <t>2023-01-11</t>
         </is>
       </c>
       <c r="AB36" t="inlineStr">
@@ -4711,22 +4664,22 @@
       <c r="AT36" t="inlineStr"/>
       <c r="AW36" t="inlineStr">
         <is>
-          <t>Ida Jansson</t>
+          <t>Cecilia Lundin</t>
         </is>
       </c>
       <c r="AX36" t="inlineStr">
         <is>
-          <t>Ida Jansson, Cecilia Lundin</t>
+          <t>Cecilia Lundin</t>
         </is>
       </c>
       <c r="AY36" t="inlineStr"/>
     </row>
     <row r="37">
       <c r="A37" t="n">
-        <v>106208512</v>
+        <v>105934447</v>
       </c>
       <c r="B37" t="n">
-        <v>78569</v>
+        <v>78596</v>
       </c>
       <c r="C37" t="inlineStr">
         <is>
@@ -4735,41 +4688,42 @@
       </c>
       <c r="D37" t="inlineStr">
         <is>
-          <t>NT</t>
+          <t>LC</t>
         </is>
       </c>
       <c r="E37" t="n">
-        <v>6458</v>
+        <v>6462</v>
       </c>
       <c r="F37" t="inlineStr">
         <is>
-          <t>Lunglav</t>
+          <t>Stuplav</t>
         </is>
       </c>
       <c r="G37" t="inlineStr">
         <is>
-          <t>Lobaria pulmonaria</t>
+          <t>Nephroma bellum</t>
         </is>
       </c>
       <c r="H37" t="inlineStr">
         <is>
-          <t>(L.) Hoffm.</t>
+          <t>(Spreng.) Tuck.</t>
         </is>
       </c>
       <c r="I37" t="inlineStr"/>
+      <c r="K37" t="inlineStr"/>
       <c r="P37" t="inlineStr">
         <is>
-          <t>Ängesträsket, Lu lm</t>
+          <t>Gärddajávrre, Lu lm</t>
         </is>
       </c>
       <c r="Q37" t="n">
-        <v>737727.187100514</v>
+        <v>738452.6544351187</v>
       </c>
       <c r="R37" t="n">
-        <v>7365130.7113351</v>
+        <v>7364477.396252138</v>
       </c>
       <c r="S37" t="n">
-        <v>10</v>
+        <v>25</v>
       </c>
       <c r="T37" t="inlineStr">
         <is>
@@ -4793,7 +4747,7 @@
       </c>
       <c r="Y37" t="inlineStr">
         <is>
-          <t>2023-01-28</t>
+          <t>2023-01-11</t>
         </is>
       </c>
       <c r="Z37" t="inlineStr">
@@ -4803,7 +4757,7 @@
       </c>
       <c r="AA37" t="inlineStr">
         <is>
-          <t>2023-01-28</t>
+          <t>2023-01-11</t>
         </is>
       </c>
       <c r="AB37" t="inlineStr">
@@ -4823,22 +4777,22 @@
       <c r="AT37" t="inlineStr"/>
       <c r="AW37" t="inlineStr">
         <is>
-          <t>Ida Jansson</t>
+          <t>Cecilia Lundin</t>
         </is>
       </c>
       <c r="AX37" t="inlineStr">
         <is>
-          <t>Ida Jansson, Cecilia Lundin</t>
+          <t>Cecilia Lundin</t>
         </is>
       </c>
       <c r="AY37" t="inlineStr"/>
     </row>
     <row r="38">
       <c r="A38" t="n">
-        <v>106208501</v>
+        <v>105936121</v>
       </c>
       <c r="B38" t="n">
-        <v>78569</v>
+        <v>78596</v>
       </c>
       <c r="C38" t="inlineStr">
         <is>
@@ -4847,44 +4801,42 @@
       </c>
       <c r="D38" t="inlineStr">
         <is>
-          <t>NT</t>
+          <t>LC</t>
         </is>
       </c>
       <c r="E38" t="n">
-        <v>6458</v>
+        <v>6462</v>
       </c>
       <c r="F38" t="inlineStr">
         <is>
-          <t>Lunglav</t>
+          <t>Stuplav</t>
         </is>
       </c>
       <c r="G38" t="inlineStr">
         <is>
-          <t>Lobaria pulmonaria</t>
+          <t>Nephroma bellum</t>
         </is>
       </c>
       <c r="H38" t="inlineStr">
         <is>
-          <t>(L.) Hoffm.</t>
+          <t>(Spreng.) Tuck.</t>
         </is>
       </c>
       <c r="I38" t="inlineStr"/>
-      <c r="J38" t="inlineStr"/>
       <c r="K38" t="inlineStr"/>
-      <c r="N38" t="inlineStr"/>
       <c r="P38" t="inlineStr">
         <is>
-          <t>Ängesträsket, Lu lm</t>
+          <t>Klingermyran, Lu lm</t>
         </is>
       </c>
       <c r="Q38" t="n">
-        <v>738175.1950411387</v>
+        <v>738194.0600222222</v>
       </c>
       <c r="R38" t="n">
-        <v>7364818.597145855</v>
+        <v>7364359.978732177</v>
       </c>
       <c r="S38" t="n">
-        <v>10</v>
+        <v>25</v>
       </c>
       <c r="T38" t="inlineStr">
         <is>
@@ -4908,7 +4860,7 @@
       </c>
       <c r="Y38" t="inlineStr">
         <is>
-          <t>2023-01-28</t>
+          <t>2023-01-11</t>
         </is>
       </c>
       <c r="Z38" t="inlineStr">
@@ -4918,7 +4870,7 @@
       </c>
       <c r="AA38" t="inlineStr">
         <is>
-          <t>2023-01-28</t>
+          <t>2023-01-11</t>
         </is>
       </c>
       <c r="AB38" t="inlineStr">
@@ -4926,40 +4878,34 @@
           <t>00:00</t>
         </is>
       </c>
-      <c r="AC38" t="inlineStr">
-        <is>
-          <t>Rikligt med lunglav på sälg. Växte även lunglav på en gran intill.</t>
-        </is>
-      </c>
       <c r="AD38" t="b">
         <v>0</v>
       </c>
       <c r="AE38" t="b">
         <v>0</v>
       </c>
-      <c r="AF38" t="inlineStr"/>
       <c r="AG38" t="b">
         <v>0</v>
       </c>
       <c r="AT38" t="inlineStr"/>
       <c r="AW38" t="inlineStr">
         <is>
-          <t>Ida Jansson</t>
+          <t>Cecilia Lundin</t>
         </is>
       </c>
       <c r="AX38" t="inlineStr">
         <is>
-          <t>Ida Jansson, Cecilia Lundin</t>
+          <t>Cecilia Lundin</t>
         </is>
       </c>
       <c r="AY38" t="inlineStr"/>
     </row>
     <row r="39">
       <c r="A39" t="n">
-        <v>106208514</v>
+        <v>105934583</v>
       </c>
       <c r="B39" t="n">
-        <v>78569</v>
+        <v>77506</v>
       </c>
       <c r="C39" t="inlineStr">
         <is>
@@ -4972,37 +4918,38 @@
         </is>
       </c>
       <c r="E39" t="n">
-        <v>6458</v>
+        <v>6425</v>
       </c>
       <c r="F39" t="inlineStr">
         <is>
-          <t>Lunglav</t>
+          <t>Garnlav</t>
         </is>
       </c>
       <c r="G39" t="inlineStr">
         <is>
-          <t>Lobaria pulmonaria</t>
+          <t>Alectoria sarmentosa</t>
         </is>
       </c>
       <c r="H39" t="inlineStr">
         <is>
-          <t>(L.) Hoffm.</t>
+          <t>(Ach.) Ach.</t>
         </is>
       </c>
       <c r="I39" t="inlineStr"/>
+      <c r="K39" t="inlineStr"/>
       <c r="P39" t="inlineStr">
         <is>
-          <t>Ängesträsket, Lu lm</t>
+          <t>Gärddajávrre, Lu lm</t>
         </is>
       </c>
       <c r="Q39" t="n">
-        <v>738131.2053105343</v>
+        <v>738438.5299549168</v>
       </c>
       <c r="R39" t="n">
-        <v>7364751.010645912</v>
+        <v>7364476.99927013</v>
       </c>
       <c r="S39" t="n">
-        <v>10</v>
+        <v>25</v>
       </c>
       <c r="T39" t="inlineStr">
         <is>
@@ -5026,7 +4973,7 @@
       </c>
       <c r="Y39" t="inlineStr">
         <is>
-          <t>2023-01-28</t>
+          <t>2023-01-11</t>
         </is>
       </c>
       <c r="Z39" t="inlineStr">
@@ -5036,7 +4983,7 @@
       </c>
       <c r="AA39" t="inlineStr">
         <is>
-          <t>2023-01-28</t>
+          <t>2023-01-11</t>
         </is>
       </c>
       <c r="AB39" t="inlineStr">
@@ -5056,22 +5003,22 @@
       <c r="AT39" t="inlineStr"/>
       <c r="AW39" t="inlineStr">
         <is>
-          <t>Ida Jansson</t>
+          <t>Cecilia Lundin</t>
         </is>
       </c>
       <c r="AX39" t="inlineStr">
         <is>
-          <t>Ida Jansson, Cecilia Lundin</t>
+          <t>Cecilia Lundin</t>
         </is>
       </c>
       <c r="AY39" t="inlineStr"/>
     </row>
     <row r="40">
       <c r="A40" t="n">
-        <v>106208517</v>
+        <v>106206551</v>
       </c>
       <c r="B40" t="n">
-        <v>78569</v>
+        <v>89952</v>
       </c>
       <c r="C40" t="inlineStr">
         <is>
@@ -5080,41 +5027,47 @@
       </c>
       <c r="D40" t="inlineStr">
         <is>
-          <t>NT</t>
+          <t>VU</t>
         </is>
       </c>
       <c r="E40" t="n">
-        <v>6458</v>
+        <v>760</v>
       </c>
       <c r="F40" t="inlineStr">
         <is>
-          <t>Lunglav</t>
+          <t>Doftticka</t>
         </is>
       </c>
       <c r="G40" t="inlineStr">
         <is>
-          <t>Lobaria pulmonaria</t>
+          <t>Haploporus odorus</t>
         </is>
       </c>
       <c r="H40" t="inlineStr">
         <is>
-          <t>(L.) Hoffm.</t>
-        </is>
-      </c>
-      <c r="I40" t="inlineStr"/>
-      <c r="J40" t="inlineStr"/>
-      <c r="K40" t="inlineStr"/>
-      <c r="N40" t="inlineStr"/>
+          <t>(Sommerf.) Bondartsev &amp; Singer</t>
+        </is>
+      </c>
+      <c r="I40" t="inlineStr">
+        <is>
+          <t>4</t>
+        </is>
+      </c>
+      <c r="J40" t="inlineStr">
+        <is>
+          <t>fruktkroppar</t>
+        </is>
+      </c>
       <c r="P40" t="inlineStr">
         <is>
           <t>Ängesträsket, Lu lm</t>
         </is>
       </c>
       <c r="Q40" t="n">
-        <v>738076.8235929422</v>
+        <v>738197.204571742</v>
       </c>
       <c r="R40" t="n">
-        <v>7364786.37604963</v>
+        <v>7364361.054931134</v>
       </c>
       <c r="S40" t="n">
         <v>10</v>
@@ -5165,7 +5118,6 @@
       <c r="AE40" t="b">
         <v>0</v>
       </c>
-      <c r="AF40" t="inlineStr"/>
       <c r="AG40" t="b">
         <v>0</v>
       </c>
@@ -5184,10 +5136,10 @@
     </row>
     <row r="41">
       <c r="A41" t="n">
-        <v>106208505</v>
+        <v>106206414</v>
       </c>
       <c r="B41" t="n">
-        <v>78569</v>
+        <v>78603</v>
       </c>
       <c r="C41" t="inlineStr">
         <is>
@@ -5196,38 +5148,41 @@
       </c>
       <c r="D41" t="inlineStr">
         <is>
-          <t>NT</t>
+          <t>LC</t>
         </is>
       </c>
       <c r="E41" t="n">
-        <v>6458</v>
+        <v>6464</v>
       </c>
       <c r="F41" t="inlineStr">
         <is>
-          <t>Lunglav</t>
+          <t>Luddlav</t>
         </is>
       </c>
       <c r="G41" t="inlineStr">
         <is>
-          <t>Lobaria pulmonaria</t>
+          <t>Nephroma resupinatum</t>
         </is>
       </c>
       <c r="H41" t="inlineStr">
         <is>
-          <t>(L.) Hoffm.</t>
+          <t>(L.) Ach.</t>
         </is>
       </c>
       <c r="I41" t="inlineStr"/>
+      <c r="J41" t="inlineStr"/>
+      <c r="K41" t="inlineStr"/>
+      <c r="N41" t="inlineStr"/>
       <c r="P41" t="inlineStr">
         <is>
           <t>Ängesträsket, Lu lm</t>
         </is>
       </c>
       <c r="Q41" t="n">
-        <v>738051.8075010977</v>
+        <v>737970.0160998622</v>
       </c>
       <c r="R41" t="n">
-        <v>7364776.164094104</v>
+        <v>7364986.15330808</v>
       </c>
       <c r="S41" t="n">
         <v>10</v>
@@ -5278,6 +5233,7 @@
       <c r="AE41" t="b">
         <v>0</v>
       </c>
+      <c r="AF41" t="inlineStr"/>
       <c r="AG41" t="b">
         <v>0</v>
       </c>
@@ -5296,10 +5252,10 @@
     </row>
     <row r="42">
       <c r="A42" t="n">
-        <v>106208504</v>
+        <v>106206488</v>
       </c>
       <c r="B42" t="n">
-        <v>78569</v>
+        <v>77506</v>
       </c>
       <c r="C42" t="inlineStr">
         <is>
@@ -5312,21 +5268,21 @@
         </is>
       </c>
       <c r="E42" t="n">
-        <v>6458</v>
+        <v>6425</v>
       </c>
       <c r="F42" t="inlineStr">
         <is>
-          <t>Lunglav</t>
+          <t>Garnlav</t>
         </is>
       </c>
       <c r="G42" t="inlineStr">
         <is>
-          <t>Lobaria pulmonaria</t>
+          <t>Alectoria sarmentosa</t>
         </is>
       </c>
       <c r="H42" t="inlineStr">
         <is>
-          <t>(L.) Hoffm.</t>
+          <t>(Ach.) Ach.</t>
         </is>
       </c>
       <c r="I42" t="inlineStr"/>
@@ -5339,10 +5295,10 @@
         </is>
       </c>
       <c r="Q42" t="n">
-        <v>738169.377629332</v>
+        <v>737949.0998649971</v>
       </c>
       <c r="R42" t="n">
-        <v>7364796.68766725</v>
+        <v>7364908.823014701</v>
       </c>
       <c r="S42" t="n">
         <v>10</v>
@@ -5412,10 +5368,10 @@
     </row>
     <row r="43">
       <c r="A43" t="n">
-        <v>106208506</v>
+        <v>106206549</v>
       </c>
       <c r="B43" t="n">
-        <v>78569</v>
+        <v>78603</v>
       </c>
       <c r="C43" t="inlineStr">
         <is>
@@ -5424,25 +5380,25 @@
       </c>
       <c r="D43" t="inlineStr">
         <is>
-          <t>NT</t>
+          <t>LC</t>
         </is>
       </c>
       <c r="E43" t="n">
-        <v>6458</v>
+        <v>6464</v>
       </c>
       <c r="F43" t="inlineStr">
         <is>
-          <t>Lunglav</t>
+          <t>Luddlav</t>
         </is>
       </c>
       <c r="G43" t="inlineStr">
         <is>
-          <t>Lobaria pulmonaria</t>
+          <t>Nephroma resupinatum</t>
         </is>
       </c>
       <c r="H43" t="inlineStr">
         <is>
-          <t>(L.) Hoffm.</t>
+          <t>(L.) Ach.</t>
         </is>
       </c>
       <c r="I43" t="inlineStr"/>
@@ -5452,10 +5408,10 @@
         </is>
       </c>
       <c r="Q43" t="n">
-        <v>738075.7470710396</v>
+        <v>738308.5554542495</v>
       </c>
       <c r="R43" t="n">
-        <v>7364789.516572416</v>
+        <v>7364478.439287182</v>
       </c>
       <c r="S43" t="n">
         <v>10</v>
@@ -5524,10 +5480,10 @@
     </row>
     <row r="44">
       <c r="A44" t="n">
-        <v>106208503</v>
+        <v>106206548</v>
       </c>
       <c r="B44" t="n">
-        <v>78569</v>
+        <v>78570</v>
       </c>
       <c r="C44" t="inlineStr">
         <is>
@@ -5540,21 +5496,21 @@
         </is>
       </c>
       <c r="E44" t="n">
-        <v>6458</v>
+        <v>2081</v>
       </c>
       <c r="F44" t="inlineStr">
         <is>
-          <t>Lunglav</t>
+          <t>Skrovellav</t>
         </is>
       </c>
       <c r="G44" t="inlineStr">
         <is>
-          <t>Lobaria pulmonaria</t>
+          <t>Lobaria scrobiculata</t>
         </is>
       </c>
       <c r="H44" t="inlineStr">
         <is>
-          <t>(L.) Hoffm.</t>
+          <t>(Scop.) DC.</t>
         </is>
       </c>
       <c r="I44" t="inlineStr"/>
@@ -5564,10 +5520,10 @@
         </is>
       </c>
       <c r="Q44" t="n">
-        <v>738175.4947770624</v>
+        <v>738308.5554542495</v>
       </c>
       <c r="R44" t="n">
-        <v>7364800.84536394</v>
+        <v>7364478.439287182</v>
       </c>
       <c r="S44" t="n">
         <v>10</v>
@@ -5636,7 +5592,7 @@
     </row>
     <row r="45">
       <c r="A45" t="n">
-        <v>106208516</v>
+        <v>106206407</v>
       </c>
       <c r="B45" t="n">
         <v>78569</v>
@@ -5670,16 +5626,19 @@
         </is>
       </c>
       <c r="I45" t="inlineStr"/>
+      <c r="J45" t="inlineStr"/>
+      <c r="K45" t="inlineStr"/>
+      <c r="N45" t="inlineStr"/>
       <c r="P45" t="inlineStr">
         <is>
           <t>Ängesträsket, Lu lm</t>
         </is>
       </c>
       <c r="Q45" t="n">
-        <v>737773.5058306307</v>
+        <v>738042.546184554</v>
       </c>
       <c r="R45" t="n">
-        <v>7365047.39341244</v>
+        <v>7364789.920203411</v>
       </c>
       <c r="S45" t="n">
         <v>10</v>
@@ -5730,6 +5689,7 @@
       <c r="AE45" t="b">
         <v>0</v>
       </c>
+      <c r="AF45" t="inlineStr"/>
       <c r="AG45" t="b">
         <v>0</v>
       </c>
@@ -5748,10 +5708,10 @@
     </row>
     <row r="46">
       <c r="A46" t="n">
-        <v>106208507</v>
+        <v>106206408</v>
       </c>
       <c r="B46" t="n">
-        <v>78569</v>
+        <v>78603</v>
       </c>
       <c r="C46" t="inlineStr">
         <is>
@@ -5760,38 +5720,41 @@
       </c>
       <c r="D46" t="inlineStr">
         <is>
-          <t>NT</t>
+          <t>LC</t>
         </is>
       </c>
       <c r="E46" t="n">
-        <v>6458</v>
+        <v>6464</v>
       </c>
       <c r="F46" t="inlineStr">
         <is>
-          <t>Lunglav</t>
+          <t>Luddlav</t>
         </is>
       </c>
       <c r="G46" t="inlineStr">
         <is>
-          <t>Lobaria pulmonaria</t>
+          <t>Nephroma resupinatum</t>
         </is>
       </c>
       <c r="H46" t="inlineStr">
         <is>
-          <t>(L.) Hoffm.</t>
+          <t>(L.) Ach.</t>
         </is>
       </c>
       <c r="I46" t="inlineStr"/>
+      <c r="J46" t="inlineStr"/>
+      <c r="K46" t="inlineStr"/>
+      <c r="N46" t="inlineStr"/>
       <c r="P46" t="inlineStr">
         <is>
           <t>Ängesträsket, Lu lm</t>
         </is>
       </c>
       <c r="Q46" t="n">
-        <v>737971.2632560891</v>
+        <v>738042.546184554</v>
       </c>
       <c r="R46" t="n">
-        <v>7364981.007529688</v>
+        <v>7364789.920203411</v>
       </c>
       <c r="S46" t="n">
         <v>10</v>
@@ -5842,6 +5805,7 @@
       <c r="AE46" t="b">
         <v>0</v>
       </c>
+      <c r="AF46" t="inlineStr"/>
       <c r="AG46" t="b">
         <v>0</v>
       </c>
@@ -5860,10 +5824,10 @@
     </row>
     <row r="47">
       <c r="A47" t="n">
-        <v>106208502</v>
+        <v>106206417</v>
       </c>
       <c r="B47" t="n">
-        <v>78569</v>
+        <v>77588</v>
       </c>
       <c r="C47" t="inlineStr">
         <is>
@@ -5876,34 +5840,37 @@
         </is>
       </c>
       <c r="E47" t="n">
-        <v>6458</v>
+        <v>864</v>
       </c>
       <c r="F47" t="inlineStr">
         <is>
-          <t>Lunglav</t>
+          <t>Knottrig blåslav</t>
         </is>
       </c>
       <c r="G47" t="inlineStr">
         <is>
-          <t>Lobaria pulmonaria</t>
+          <t>Hypogymnia bitteri</t>
         </is>
       </c>
       <c r="H47" t="inlineStr">
         <is>
-          <t>(L.) Hoffm.</t>
+          <t>(Lynge) Ahti</t>
         </is>
       </c>
       <c r="I47" t="inlineStr"/>
+      <c r="J47" t="inlineStr"/>
+      <c r="K47" t="inlineStr"/>
+      <c r="N47" t="inlineStr"/>
       <c r="P47" t="inlineStr">
         <is>
           <t>Ängesträsket, Lu lm</t>
         </is>
       </c>
       <c r="Q47" t="n">
-        <v>738257.2045568145</v>
+        <v>738154.1886974263</v>
       </c>
       <c r="R47" t="n">
-        <v>7364425.974899779</v>
+        <v>7364737.615936293</v>
       </c>
       <c r="S47" t="n">
         <v>10</v>
@@ -5954,8 +5921,24 @@
       <c r="AE47" t="b">
         <v>0</v>
       </c>
+      <c r="AF47" t="inlineStr"/>
       <c r="AG47" t="b">
         <v>0</v>
+      </c>
+      <c r="AJ47" t="inlineStr">
+        <is>
+          <t>vårtbjörk</t>
+        </is>
+      </c>
+      <c r="AK47" t="inlineStr">
+        <is>
+          <t>Betula pendula</t>
+        </is>
+      </c>
+      <c r="AO47" t="inlineStr">
+        <is>
+          <t>Betula pendula</t>
+        </is>
       </c>
       <c r="AT47" t="inlineStr"/>
       <c r="AW47" t="inlineStr">
@@ -5972,7 +5955,7 @@
     </row>
     <row r="48">
       <c r="A48" t="n">
-        <v>106208515</v>
+        <v>106206547</v>
       </c>
       <c r="B48" t="n">
         <v>78569</v>
@@ -6012,10 +5995,10 @@
         </is>
       </c>
       <c r="Q48" t="n">
-        <v>737789.0382435257</v>
+        <v>738308.5554542495</v>
       </c>
       <c r="R48" t="n">
-        <v>7365064.47073733</v>
+        <v>7364478.439287182</v>
       </c>
       <c r="S48" t="n">
         <v>10</v>
@@ -6084,10 +6067,10 @@
     </row>
     <row r="49">
       <c r="A49" t="n">
-        <v>106208513</v>
+        <v>106206415</v>
       </c>
       <c r="B49" t="n">
-        <v>78602</v>
+        <v>77588</v>
       </c>
       <c r="C49" t="inlineStr">
         <is>
@@ -6096,38 +6079,41 @@
       </c>
       <c r="D49" t="inlineStr">
         <is>
-          <t>LC</t>
+          <t>NT</t>
         </is>
       </c>
       <c r="E49" t="n">
-        <v>6463</v>
+        <v>864</v>
       </c>
       <c r="F49" t="inlineStr">
         <is>
-          <t>Bårdlav</t>
+          <t>Knottrig blåslav</t>
         </is>
       </c>
       <c r="G49" t="inlineStr">
         <is>
-          <t>Nephroma parile</t>
+          <t>Hypogymnia bitteri</t>
         </is>
       </c>
       <c r="H49" t="inlineStr">
         <is>
-          <t>(Ach.) Ach.</t>
+          <t>(Lynge) Ahti</t>
         </is>
       </c>
       <c r="I49" t="inlineStr"/>
+      <c r="J49" t="inlineStr"/>
+      <c r="K49" t="inlineStr"/>
+      <c r="N49" t="inlineStr"/>
       <c r="P49" t="inlineStr">
         <is>
           <t>Ängesträsket, Lu lm</t>
         </is>
       </c>
       <c r="Q49" t="n">
-        <v>737727.187100514</v>
+        <v>737939.9077688311</v>
       </c>
       <c r="R49" t="n">
-        <v>7365130.7113351</v>
+        <v>7364921.776521774</v>
       </c>
       <c r="S49" t="n">
         <v>10</v>
@@ -6178,6 +6164,7 @@
       <c r="AE49" t="b">
         <v>0</v>
       </c>
+      <c r="AF49" t="inlineStr"/>
       <c r="AG49" t="b">
         <v>0</v>
       </c>
@@ -6196,10 +6183,10 @@
     </row>
     <row r="50">
       <c r="A50" t="n">
-        <v>106206550</v>
+        <v>106206413</v>
       </c>
       <c r="B50" t="n">
-        <v>77258</v>
+        <v>78569</v>
       </c>
       <c r="C50" t="inlineStr">
         <is>
@@ -6212,21 +6199,21 @@
         </is>
       </c>
       <c r="E50" t="n">
-        <v>6446</v>
+        <v>6458</v>
       </c>
       <c r="F50" t="inlineStr">
         <is>
-          <t>Kolflarnlav</t>
+          <t>Lunglav</t>
         </is>
       </c>
       <c r="G50" t="inlineStr">
         <is>
-          <t>Carbonicola anthracophila</t>
+          <t>Lobaria pulmonaria</t>
         </is>
       </c>
       <c r="H50" t="inlineStr">
         <is>
-          <t>(Nyl.) Bendiksby &amp; Timdal</t>
+          <t>(L.) Hoffm.</t>
         </is>
       </c>
       <c r="I50" t="inlineStr"/>
@@ -6239,10 +6226,10 @@
         </is>
       </c>
       <c r="Q50" t="n">
-        <v>738179.2006596789</v>
+        <v>738046.835428426</v>
       </c>
       <c r="R50" t="n">
-        <v>7364339.71982016</v>
+        <v>7364844.021036916</v>
       </c>
       <c r="S50" t="n">
         <v>10</v>
@@ -6287,11 +6274,6 @@
           <t>00:00</t>
         </is>
       </c>
-      <c r="AC50" t="inlineStr">
-        <is>
-          <t>På brandstubbe.</t>
-        </is>
-      </c>
       <c r="AD50" t="b">
         <v>0</v>
       </c>
@@ -6301,16 +6283,6 @@
       <c r="AF50" t="inlineStr"/>
       <c r="AG50" t="b">
         <v>0</v>
-      </c>
-      <c r="AM50" t="inlineStr">
-        <is>
-          <t>Stående död trädstam/högstubbe</t>
-        </is>
-      </c>
-      <c r="AO50" t="inlineStr">
-        <is>
-          <t>Standing dead tree/snags</t>
-        </is>
       </c>
       <c r="AT50" t="inlineStr"/>
       <c r="AW50" t="inlineStr">
@@ -6327,10 +6299,10 @@
     </row>
     <row r="51">
       <c r="A51" t="n">
-        <v>106208508</v>
+        <v>106206416</v>
       </c>
       <c r="B51" t="n">
-        <v>56411</v>
+        <v>77588</v>
       </c>
       <c r="C51" t="inlineStr">
         <is>
@@ -6343,31 +6315,26 @@
         </is>
       </c>
       <c r="E51" t="n">
-        <v>100049</v>
+        <v>864</v>
       </c>
       <c r="F51" t="inlineStr">
         <is>
-          <t>Spillkråka</t>
+          <t>Knottrig blåslav</t>
         </is>
       </c>
       <c r="G51" t="inlineStr">
         <is>
-          <t>Dryocopus martius</t>
+          <t>Hypogymnia bitteri</t>
         </is>
       </c>
       <c r="H51" t="inlineStr">
         <is>
-          <t>(Linnaeus, 1758)</t>
+          <t>(Lynge) Ahti</t>
         </is>
       </c>
       <c r="I51" t="inlineStr"/>
+      <c r="J51" t="inlineStr"/>
       <c r="K51" t="inlineStr"/>
-      <c r="L51" t="inlineStr"/>
-      <c r="M51" t="inlineStr">
-        <is>
-          <t>äldre spår</t>
-        </is>
-      </c>
       <c r="N51" t="inlineStr"/>
       <c r="P51" t="inlineStr">
         <is>
@@ -6375,10 +6342,10 @@
         </is>
       </c>
       <c r="Q51" t="n">
-        <v>738194.9111696251</v>
+        <v>738168.4491733313</v>
       </c>
       <c r="R51" t="n">
-        <v>7364686.945022388</v>
+        <v>7364717.417170158</v>
       </c>
       <c r="S51" t="n">
         <v>10</v>
@@ -6423,29 +6390,15 @@
           <t>00:00</t>
         </is>
       </c>
-      <c r="AC51" t="inlineStr">
-        <is>
-          <t>Hål i nedre del av brandpåverkad högstubbe.</t>
-        </is>
-      </c>
       <c r="AD51" t="b">
         <v>0</v>
       </c>
       <c r="AE51" t="b">
         <v>0</v>
       </c>
+      <c r="AF51" t="inlineStr"/>
       <c r="AG51" t="b">
         <v>0</v>
-      </c>
-      <c r="AM51" t="inlineStr">
-        <is>
-          <t>Stående död trädstam/högstubbe</t>
-        </is>
-      </c>
-      <c r="AO51" t="inlineStr">
-        <is>
-          <t>Standing dead tree/snags</t>
-        </is>
       </c>
       <c r="AT51" t="inlineStr"/>
       <c r="AW51" t="inlineStr">
@@ -6462,10 +6415,10 @@
     </row>
     <row r="52">
       <c r="A52" t="n">
-        <v>109966866</v>
+        <v>106208501</v>
       </c>
       <c r="B52" t="n">
-        <v>77259</v>
+        <v>78569</v>
       </c>
       <c r="C52" t="inlineStr">
         <is>
@@ -6478,37 +6431,40 @@
         </is>
       </c>
       <c r="E52" t="n">
-        <v>228912</v>
+        <v>6458</v>
       </c>
       <c r="F52" t="inlineStr">
         <is>
-          <t>Mörk kolflarnlav</t>
+          <t>Lunglav</t>
         </is>
       </c>
       <c r="G52" t="inlineStr">
         <is>
-          <t>Carbonicola myrmecina</t>
+          <t>Lobaria pulmonaria</t>
         </is>
       </c>
       <c r="H52" t="inlineStr">
         <is>
-          <t>(Ach.) Bendiksby &amp; Timdal</t>
+          <t>(L.) Hoffm.</t>
         </is>
       </c>
       <c r="I52" t="inlineStr"/>
+      <c r="J52" t="inlineStr"/>
+      <c r="K52" t="inlineStr"/>
+      <c r="N52" t="inlineStr"/>
       <c r="P52" t="inlineStr">
         <is>
           <t>Ängesträsket, Lu lm</t>
         </is>
       </c>
       <c r="Q52" t="n">
-        <v>738302.1176851427</v>
+        <v>738175.1950411387</v>
       </c>
       <c r="R52" t="n">
-        <v>7364283.520857141</v>
+        <v>7364818.597145855</v>
       </c>
       <c r="S52" t="n">
-        <v>20</v>
+        <v>10</v>
       </c>
       <c r="T52" t="inlineStr">
         <is>
@@ -6532,7 +6488,7 @@
       </c>
       <c r="Y52" t="inlineStr">
         <is>
-          <t>2023-06-10</t>
+          <t>2023-01-28</t>
         </is>
       </c>
       <c r="Z52" t="inlineStr">
@@ -6542,7 +6498,7 @@
       </c>
       <c r="AA52" t="inlineStr">
         <is>
-          <t>2023-06-10</t>
+          <t>2023-01-28</t>
         </is>
       </c>
       <c r="AB52" t="inlineStr">
@@ -6550,34 +6506,40 @@
           <t>00:00</t>
         </is>
       </c>
+      <c r="AC52" t="inlineStr">
+        <is>
+          <t>Rikligt med lunglav på sälg. Växte även lunglav på en gran intill.</t>
+        </is>
+      </c>
       <c r="AD52" t="b">
         <v>0</v>
       </c>
       <c r="AE52" t="b">
         <v>0</v>
       </c>
+      <c r="AF52" t="inlineStr"/>
       <c r="AG52" t="b">
         <v>0</v>
       </c>
       <c r="AT52" t="inlineStr"/>
       <c r="AW52" t="inlineStr">
         <is>
-          <t>Amanda Tas</t>
+          <t>Ida Jansson</t>
         </is>
       </c>
       <c r="AX52" t="inlineStr">
         <is>
-          <t>Amanda Tas</t>
+          <t>Ida Jansson, Cecilia Lundin</t>
         </is>
       </c>
       <c r="AY52" t="inlineStr"/>
     </row>
     <row r="53">
       <c r="A53" t="n">
-        <v>109966820</v>
+        <v>106208514</v>
       </c>
       <c r="B53" t="n">
-        <v>78098</v>
+        <v>78569</v>
       </c>
       <c r="C53" t="inlineStr">
         <is>
@@ -6590,21 +6552,21 @@
         </is>
       </c>
       <c r="E53" t="n">
-        <v>6453</v>
+        <v>6458</v>
       </c>
       <c r="F53" t="inlineStr">
         <is>
-          <t>Vedskivlav</t>
+          <t>Lunglav</t>
         </is>
       </c>
       <c r="G53" t="inlineStr">
         <is>
-          <t>Hertelidea botryosa</t>
+          <t>Lobaria pulmonaria</t>
         </is>
       </c>
       <c r="H53" t="inlineStr">
         <is>
-          <t>(Fr.) Printzen &amp; Kantvilas</t>
+          <t>(L.) Hoffm.</t>
         </is>
       </c>
       <c r="I53" t="inlineStr"/>
@@ -6614,13 +6576,13 @@
         </is>
       </c>
       <c r="Q53" t="n">
-        <v>738249.3004084504</v>
+        <v>738131.2053105343</v>
       </c>
       <c r="R53" t="n">
-        <v>7364428.533740108</v>
+        <v>7364751.010645912</v>
       </c>
       <c r="S53" t="n">
-        <v>20</v>
+        <v>10</v>
       </c>
       <c r="T53" t="inlineStr">
         <is>
@@ -6644,7 +6606,7 @@
       </c>
       <c r="Y53" t="inlineStr">
         <is>
-          <t>2023-06-10</t>
+          <t>2023-01-28</t>
         </is>
       </c>
       <c r="Z53" t="inlineStr">
@@ -6654,7 +6616,7 @@
       </c>
       <c r="AA53" t="inlineStr">
         <is>
-          <t>2023-06-10</t>
+          <t>2023-01-28</t>
         </is>
       </c>
       <c r="AB53" t="inlineStr">
@@ -6674,22 +6636,22 @@
       <c r="AT53" t="inlineStr"/>
       <c r="AW53" t="inlineStr">
         <is>
-          <t>Amanda Tas</t>
+          <t>Ida Jansson</t>
         </is>
       </c>
       <c r="AX53" t="inlineStr">
         <is>
-          <t>Amanda Tas</t>
+          <t>Ida Jansson, Cecilia Lundin</t>
         </is>
       </c>
       <c r="AY53" t="inlineStr"/>
     </row>
     <row r="54">
       <c r="A54" t="n">
-        <v>109966909</v>
+        <v>106208517</v>
       </c>
       <c r="B54" t="n">
-        <v>96334</v>
+        <v>78569</v>
       </c>
       <c r="C54" t="inlineStr">
         <is>
@@ -6698,41 +6660,44 @@
       </c>
       <c r="D54" t="inlineStr">
         <is>
-          <t>VU</t>
+          <t>NT</t>
         </is>
       </c>
       <c r="E54" t="n">
-        <v>220787</v>
+        <v>6458</v>
       </c>
       <c r="F54" t="inlineStr">
         <is>
-          <t>Knärot</t>
+          <t>Lunglav</t>
         </is>
       </c>
       <c r="G54" t="inlineStr">
         <is>
-          <t>Goodyera repens</t>
+          <t>Lobaria pulmonaria</t>
         </is>
       </c>
       <c r="H54" t="inlineStr">
         <is>
-          <t>(L.) R. Br.</t>
+          <t>(L.) Hoffm.</t>
         </is>
       </c>
       <c r="I54" t="inlineStr"/>
+      <c r="J54" t="inlineStr"/>
+      <c r="K54" t="inlineStr"/>
+      <c r="N54" t="inlineStr"/>
       <c r="P54" t="inlineStr">
         <is>
           <t>Ängesträsket, Lu lm</t>
         </is>
       </c>
       <c r="Q54" t="n">
-        <v>738117.5087568547</v>
+        <v>738076.8235929422</v>
       </c>
       <c r="R54" t="n">
-        <v>7364793.075095916</v>
+        <v>7364786.37604963</v>
       </c>
       <c r="S54" t="n">
-        <v>20</v>
+        <v>10</v>
       </c>
       <c r="T54" t="inlineStr">
         <is>
@@ -6756,7 +6721,7 @@
       </c>
       <c r="Y54" t="inlineStr">
         <is>
-          <t>2023-06-10</t>
+          <t>2023-01-28</t>
         </is>
       </c>
       <c r="Z54" t="inlineStr">
@@ -6766,7 +6731,7 @@
       </c>
       <c r="AA54" t="inlineStr">
         <is>
-          <t>2023-06-10</t>
+          <t>2023-01-28</t>
         </is>
       </c>
       <c r="AB54" t="inlineStr">
@@ -6774,39 +6739,35 @@
           <t>00:00</t>
         </is>
       </c>
-      <c r="AC54" t="inlineStr">
-        <is>
-          <t>Ca 30 exemplar</t>
-        </is>
-      </c>
       <c r="AD54" t="b">
         <v>0</v>
       </c>
       <c r="AE54" t="b">
         <v>0</v>
       </c>
+      <c r="AF54" t="inlineStr"/>
       <c r="AG54" t="b">
         <v>0</v>
       </c>
       <c r="AT54" t="inlineStr"/>
       <c r="AW54" t="inlineStr">
         <is>
-          <t>Amanda Tas</t>
+          <t>Ida Jansson</t>
         </is>
       </c>
       <c r="AX54" t="inlineStr">
         <is>
-          <t>Amanda Tas</t>
+          <t>Ida Jansson, Cecilia Lundin</t>
         </is>
       </c>
       <c r="AY54" t="inlineStr"/>
     </row>
     <row r="55">
       <c r="A55" t="n">
-        <v>109966861</v>
+        <v>106208505</v>
       </c>
       <c r="B55" t="n">
-        <v>77532</v>
+        <v>78569</v>
       </c>
       <c r="C55" t="inlineStr">
         <is>
@@ -6815,25 +6776,25 @@
       </c>
       <c r="D55" t="inlineStr">
         <is>
-          <t>LC</t>
+          <t>NT</t>
         </is>
       </c>
       <c r="E55" t="n">
-        <v>6434</v>
+        <v>6458</v>
       </c>
       <c r="F55" t="inlineStr">
         <is>
-          <t>Nästlav</t>
+          <t>Lunglav</t>
         </is>
       </c>
       <c r="G55" t="inlineStr">
         <is>
-          <t>Bryoria furcellata</t>
+          <t>Lobaria pulmonaria</t>
         </is>
       </c>
       <c r="H55" t="inlineStr">
         <is>
-          <t>(Fr.) Brodo &amp; D.Hawksw.</t>
+          <t>(L.) Hoffm.</t>
         </is>
       </c>
       <c r="I55" t="inlineStr"/>
@@ -6843,13 +6804,13 @@
         </is>
       </c>
       <c r="Q55" t="n">
-        <v>738269.4800388551</v>
+        <v>738051.8075010977</v>
       </c>
       <c r="R55" t="n">
-        <v>7364338.929123218</v>
+        <v>7364776.164094104</v>
       </c>
       <c r="S55" t="n">
-        <v>20</v>
+        <v>10</v>
       </c>
       <c r="T55" t="inlineStr">
         <is>
@@ -6873,7 +6834,7 @@
       </c>
       <c r="Y55" t="inlineStr">
         <is>
-          <t>2023-06-10</t>
+          <t>2023-01-28</t>
         </is>
       </c>
       <c r="Z55" t="inlineStr">
@@ -6883,7 +6844,7 @@
       </c>
       <c r="AA55" t="inlineStr">
         <is>
-          <t>2023-06-10</t>
+          <t>2023-01-28</t>
         </is>
       </c>
       <c r="AB55" t="inlineStr">
@@ -6903,22 +6864,22 @@
       <c r="AT55" t="inlineStr"/>
       <c r="AW55" t="inlineStr">
         <is>
-          <t>Amanda Tas</t>
+          <t>Ida Jansson</t>
         </is>
       </c>
       <c r="AX55" t="inlineStr">
         <is>
-          <t>Amanda Tas</t>
+          <t>Ida Jansson, Cecilia Lundin</t>
         </is>
       </c>
       <c r="AY55" t="inlineStr"/>
     </row>
     <row r="56">
       <c r="A56" t="n">
-        <v>109966910</v>
+        <v>106208504</v>
       </c>
       <c r="B56" t="n">
-        <v>96334</v>
+        <v>78569</v>
       </c>
       <c r="C56" t="inlineStr">
         <is>
@@ -6927,41 +6888,44 @@
       </c>
       <c r="D56" t="inlineStr">
         <is>
-          <t>VU</t>
+          <t>NT</t>
         </is>
       </c>
       <c r="E56" t="n">
-        <v>220787</v>
+        <v>6458</v>
       </c>
       <c r="F56" t="inlineStr">
         <is>
-          <t>Knärot</t>
+          <t>Lunglav</t>
         </is>
       </c>
       <c r="G56" t="inlineStr">
         <is>
-          <t>Goodyera repens</t>
+          <t>Lobaria pulmonaria</t>
         </is>
       </c>
       <c r="H56" t="inlineStr">
         <is>
-          <t>(L.) R. Br.</t>
+          <t>(L.) Hoffm.</t>
         </is>
       </c>
       <c r="I56" t="inlineStr"/>
+      <c r="J56" t="inlineStr"/>
+      <c r="K56" t="inlineStr"/>
+      <c r="N56" t="inlineStr"/>
       <c r="P56" t="inlineStr">
         <is>
           <t>Ängesträsket, Lu lm</t>
         </is>
       </c>
       <c r="Q56" t="n">
-        <v>738094.5859668213</v>
+        <v>738169.377629332</v>
       </c>
       <c r="R56" t="n">
-        <v>7364791.52579218</v>
+        <v>7364796.68766725</v>
       </c>
       <c r="S56" t="n">
-        <v>20</v>
+        <v>10</v>
       </c>
       <c r="T56" t="inlineStr">
         <is>
@@ -6985,7 +6949,7 @@
       </c>
       <c r="Y56" t="inlineStr">
         <is>
-          <t>2023-06-10</t>
+          <t>2023-01-28</t>
         </is>
       </c>
       <c r="Z56" t="inlineStr">
@@ -6995,7 +6959,7 @@
       </c>
       <c r="AA56" t="inlineStr">
         <is>
-          <t>2023-06-10</t>
+          <t>2023-01-28</t>
         </is>
       </c>
       <c r="AB56" t="inlineStr">
@@ -7003,39 +6967,35 @@
           <t>00:00</t>
         </is>
       </c>
-      <c r="AC56" t="inlineStr">
-        <is>
-          <t>Ca 20 exemplar</t>
-        </is>
-      </c>
       <c r="AD56" t="b">
         <v>0</v>
       </c>
       <c r="AE56" t="b">
         <v>0</v>
       </c>
+      <c r="AF56" t="inlineStr"/>
       <c r="AG56" t="b">
         <v>0</v>
       </c>
       <c r="AT56" t="inlineStr"/>
       <c r="AW56" t="inlineStr">
         <is>
-          <t>Amanda Tas</t>
+          <t>Ida Jansson</t>
         </is>
       </c>
       <c r="AX56" t="inlineStr">
         <is>
-          <t>Amanda Tas</t>
+          <t>Ida Jansson, Cecilia Lundin</t>
         </is>
       </c>
       <c r="AY56" t="inlineStr"/>
     </row>
     <row r="57">
       <c r="A57" t="n">
-        <v>109966822</v>
+        <v>106208506</v>
       </c>
       <c r="B57" t="n">
-        <v>78098</v>
+        <v>78569</v>
       </c>
       <c r="C57" t="inlineStr">
         <is>
@@ -7048,21 +7008,21 @@
         </is>
       </c>
       <c r="E57" t="n">
-        <v>6453</v>
+        <v>6458</v>
       </c>
       <c r="F57" t="inlineStr">
         <is>
-          <t>Vedskivlav</t>
+          <t>Lunglav</t>
         </is>
       </c>
       <c r="G57" t="inlineStr">
         <is>
-          <t>Hertelidea botryosa</t>
+          <t>Lobaria pulmonaria</t>
         </is>
       </c>
       <c r="H57" t="inlineStr">
         <is>
-          <t>(Fr.) Printzen &amp; Kantvilas</t>
+          <t>(L.) Hoffm.</t>
         </is>
       </c>
       <c r="I57" t="inlineStr"/>
@@ -7072,13 +7032,13 @@
         </is>
       </c>
       <c r="Q57" t="n">
-        <v>738362.2771508534</v>
+        <v>738075.7470710396</v>
       </c>
       <c r="R57" t="n">
-        <v>7364280.164716368</v>
+        <v>7364789.516572416</v>
       </c>
       <c r="S57" t="n">
-        <v>20</v>
+        <v>10</v>
       </c>
       <c r="T57" t="inlineStr">
         <is>
@@ -7102,7 +7062,7 @@
       </c>
       <c r="Y57" t="inlineStr">
         <is>
-          <t>2023-06-10</t>
+          <t>2023-01-28</t>
         </is>
       </c>
       <c r="Z57" t="inlineStr">
@@ -7112,7 +7072,7 @@
       </c>
       <c r="AA57" t="inlineStr">
         <is>
-          <t>2023-06-10</t>
+          <t>2023-01-28</t>
         </is>
       </c>
       <c r="AB57" t="inlineStr">
@@ -7132,22 +7092,22 @@
       <c r="AT57" t="inlineStr"/>
       <c r="AW57" t="inlineStr">
         <is>
-          <t>Amanda Tas</t>
+          <t>Ida Jansson</t>
         </is>
       </c>
       <c r="AX57" t="inlineStr">
         <is>
-          <t>Amanda Tas</t>
+          <t>Ida Jansson, Cecilia Lundin</t>
         </is>
       </c>
       <c r="AY57" t="inlineStr"/>
     </row>
     <row r="58">
       <c r="A58" t="n">
-        <v>109966898</v>
+        <v>106208503</v>
       </c>
       <c r="B58" t="n">
-        <v>77258</v>
+        <v>78569</v>
       </c>
       <c r="C58" t="inlineStr">
         <is>
@@ -7160,21 +7120,21 @@
         </is>
       </c>
       <c r="E58" t="n">
-        <v>6446</v>
+        <v>6458</v>
       </c>
       <c r="F58" t="inlineStr">
         <is>
-          <t>Kolflarnlav</t>
+          <t>Lunglav</t>
         </is>
       </c>
       <c r="G58" t="inlineStr">
         <is>
-          <t>Carbonicola anthracophila</t>
+          <t>Lobaria pulmonaria</t>
         </is>
       </c>
       <c r="H58" t="inlineStr">
         <is>
-          <t>(Nyl.) Bendiksby &amp; Timdal</t>
+          <t>(L.) Hoffm.</t>
         </is>
       </c>
       <c r="I58" t="inlineStr"/>
@@ -7184,13 +7144,13 @@
         </is>
       </c>
       <c r="Q58" t="n">
-        <v>738189.0928880611</v>
+        <v>738175.4947770624</v>
       </c>
       <c r="R58" t="n">
-        <v>7364441.989472448</v>
+        <v>7364800.84536394</v>
       </c>
       <c r="S58" t="n">
-        <v>20</v>
+        <v>10</v>
       </c>
       <c r="T58" t="inlineStr">
         <is>
@@ -7214,7 +7174,7 @@
       </c>
       <c r="Y58" t="inlineStr">
         <is>
-          <t>2023-06-10</t>
+          <t>2023-01-28</t>
         </is>
       </c>
       <c r="Z58" t="inlineStr">
@@ -7224,7 +7184,7 @@
       </c>
       <c r="AA58" t="inlineStr">
         <is>
-          <t>2023-06-10</t>
+          <t>2023-01-28</t>
         </is>
       </c>
       <c r="AB58" t="inlineStr">
@@ -7244,22 +7204,22 @@
       <c r="AT58" t="inlineStr"/>
       <c r="AW58" t="inlineStr">
         <is>
-          <t>Amanda Tas</t>
+          <t>Ida Jansson</t>
         </is>
       </c>
       <c r="AX58" t="inlineStr">
         <is>
-          <t>Amanda Tas</t>
+          <t>Ida Jansson, Cecilia Lundin</t>
         </is>
       </c>
       <c r="AY58" t="inlineStr"/>
     </row>
     <row r="59">
       <c r="A59" t="n">
-        <v>109966860</v>
+        <v>106208507</v>
       </c>
       <c r="B59" t="n">
-        <v>77532</v>
+        <v>78569</v>
       </c>
       <c r="C59" t="inlineStr">
         <is>
@@ -7268,25 +7228,25 @@
       </c>
       <c r="D59" t="inlineStr">
         <is>
-          <t>LC</t>
+          <t>NT</t>
         </is>
       </c>
       <c r="E59" t="n">
-        <v>6434</v>
+        <v>6458</v>
       </c>
       <c r="F59" t="inlineStr">
         <is>
-          <t>Nästlav</t>
+          <t>Lunglav</t>
         </is>
       </c>
       <c r="G59" t="inlineStr">
         <is>
-          <t>Bryoria furcellata</t>
+          <t>Lobaria pulmonaria</t>
         </is>
       </c>
       <c r="H59" t="inlineStr">
         <is>
-          <t>(Fr.) Brodo &amp; D.Hawksw.</t>
+          <t>(L.) Hoffm.</t>
         </is>
       </c>
       <c r="I59" t="inlineStr"/>
@@ -7296,13 +7256,13 @@
         </is>
       </c>
       <c r="Q59" t="n">
-        <v>738233.9446167898</v>
+        <v>737971.2632560891</v>
       </c>
       <c r="R59" t="n">
-        <v>7364442.579905941</v>
+        <v>7364981.007529688</v>
       </c>
       <c r="S59" t="n">
-        <v>20</v>
+        <v>10</v>
       </c>
       <c r="T59" t="inlineStr">
         <is>
@@ -7326,7 +7286,7 @@
       </c>
       <c r="Y59" t="inlineStr">
         <is>
-          <t>2023-06-10</t>
+          <t>2023-01-28</t>
         </is>
       </c>
       <c r="Z59" t="inlineStr">
@@ -7336,7 +7296,7 @@
       </c>
       <c r="AA59" t="inlineStr">
         <is>
-          <t>2023-06-10</t>
+          <t>2023-01-28</t>
         </is>
       </c>
       <c r="AB59" t="inlineStr">
@@ -7356,22 +7316,22 @@
       <c r="AT59" t="inlineStr"/>
       <c r="AW59" t="inlineStr">
         <is>
-          <t>Amanda Tas</t>
+          <t>Ida Jansson</t>
         </is>
       </c>
       <c r="AX59" t="inlineStr">
         <is>
-          <t>Amanda Tas</t>
+          <t>Ida Jansson, Cecilia Lundin</t>
         </is>
       </c>
       <c r="AY59" t="inlineStr"/>
     </row>
     <row r="60">
       <c r="A60" t="n">
-        <v>109966821</v>
+        <v>106208502</v>
       </c>
       <c r="B60" t="n">
-        <v>78098</v>
+        <v>78569</v>
       </c>
       <c r="C60" t="inlineStr">
         <is>
@@ -7384,21 +7344,21 @@
         </is>
       </c>
       <c r="E60" t="n">
-        <v>6453</v>
+        <v>6458</v>
       </c>
       <c r="F60" t="inlineStr">
         <is>
-          <t>Vedskivlav</t>
+          <t>Lunglav</t>
         </is>
       </c>
       <c r="G60" t="inlineStr">
         <is>
-          <t>Hertelidea botryosa</t>
+          <t>Lobaria pulmonaria</t>
         </is>
       </c>
       <c r="H60" t="inlineStr">
         <is>
-          <t>(Fr.) Printzen &amp; Kantvilas</t>
+          <t>(L.) Hoffm.</t>
         </is>
       </c>
       <c r="I60" t="inlineStr"/>
@@ -7408,13 +7368,13 @@
         </is>
       </c>
       <c r="Q60" t="n">
-        <v>738256.2127124236</v>
+        <v>738257.2045568145</v>
       </c>
       <c r="R60" t="n">
-        <v>7364437.608836009</v>
+        <v>7364425.974899779</v>
       </c>
       <c r="S60" t="n">
-        <v>20</v>
+        <v>10</v>
       </c>
       <c r="T60" t="inlineStr">
         <is>
@@ -7438,7 +7398,7 @@
       </c>
       <c r="Y60" t="inlineStr">
         <is>
-          <t>2023-06-10</t>
+          <t>2023-01-28</t>
         </is>
       </c>
       <c r="Z60" t="inlineStr">
@@ -7448,7 +7408,7 @@
       </c>
       <c r="AA60" t="inlineStr">
         <is>
-          <t>2023-06-10</t>
+          <t>2023-01-28</t>
         </is>
       </c>
       <c r="AB60" t="inlineStr">
@@ -7468,22 +7428,22 @@
       <c r="AT60" t="inlineStr"/>
       <c r="AW60" t="inlineStr">
         <is>
-          <t>Amanda Tas</t>
+          <t>Ida Jansson</t>
         </is>
       </c>
       <c r="AX60" t="inlineStr">
         <is>
-          <t>Amanda Tas</t>
+          <t>Ida Jansson, Cecilia Lundin</t>
         </is>
       </c>
       <c r="AY60" t="inlineStr"/>
     </row>
     <row r="61">
       <c r="A61" t="n">
-        <v>109966912</v>
+        <v>106206550</v>
       </c>
       <c r="B61" t="n">
-        <v>96334</v>
+        <v>77258</v>
       </c>
       <c r="C61" t="inlineStr">
         <is>
@@ -7492,41 +7452,44 @@
       </c>
       <c r="D61" t="inlineStr">
         <is>
-          <t>VU</t>
+          <t>NT</t>
         </is>
       </c>
       <c r="E61" t="n">
-        <v>220787</v>
+        <v>6446</v>
       </c>
       <c r="F61" t="inlineStr">
         <is>
-          <t>Knärot</t>
+          <t>Kolflarnlav</t>
         </is>
       </c>
       <c r="G61" t="inlineStr">
         <is>
-          <t>Goodyera repens</t>
+          <t>Carbonicola anthracophila</t>
         </is>
       </c>
       <c r="H61" t="inlineStr">
         <is>
-          <t>(L.) R. Br.</t>
+          <t>(Nyl.) Bendiksby &amp; Timdal</t>
         </is>
       </c>
       <c r="I61" t="inlineStr"/>
+      <c r="J61" t="inlineStr"/>
+      <c r="K61" t="inlineStr"/>
+      <c r="N61" t="inlineStr"/>
       <c r="P61" t="inlineStr">
         <is>
           <t>Ängesträsket, Lu lm</t>
         </is>
       </c>
       <c r="Q61" t="n">
-        <v>738136.458849099</v>
+        <v>738179.2006596789</v>
       </c>
       <c r="R61" t="n">
-        <v>7364789.033600956</v>
+        <v>7364339.71982016</v>
       </c>
       <c r="S61" t="n">
-        <v>20</v>
+        <v>10</v>
       </c>
       <c r="T61" t="inlineStr">
         <is>
@@ -7550,7 +7513,7 @@
       </c>
       <c r="Y61" t="inlineStr">
         <is>
-          <t>2023-06-10</t>
+          <t>2023-01-28</t>
         </is>
       </c>
       <c r="Z61" t="inlineStr">
@@ -7560,7 +7523,7 @@
       </c>
       <c r="AA61" t="inlineStr">
         <is>
-          <t>2023-06-10</t>
+          <t>2023-01-28</t>
         </is>
       </c>
       <c r="AB61" t="inlineStr">
@@ -7570,7 +7533,7 @@
       </c>
       <c r="AC61" t="inlineStr">
         <is>
-          <t>Ca 20 exemplar</t>
+          <t>På brandstubbe.</t>
         </is>
       </c>
       <c r="AD61" t="b">
@@ -7579,28 +7542,39 @@
       <c r="AE61" t="b">
         <v>0</v>
       </c>
+      <c r="AF61" t="inlineStr"/>
       <c r="AG61" t="b">
         <v>0</v>
+      </c>
+      <c r="AM61" t="inlineStr">
+        <is>
+          <t>Stående död trädstam/högstubbe</t>
+        </is>
+      </c>
+      <c r="AO61" t="inlineStr">
+        <is>
+          <t>Standing dead tree/snags</t>
+        </is>
       </c>
       <c r="AT61" t="inlineStr"/>
       <c r="AW61" t="inlineStr">
         <is>
-          <t>Amanda Tas</t>
+          <t>Ida Jansson</t>
         </is>
       </c>
       <c r="AX61" t="inlineStr">
         <is>
-          <t>Amanda Tas</t>
+          <t>Ida Jansson, Cecilia Lundin</t>
         </is>
       </c>
       <c r="AY61" t="inlineStr"/>
     </row>
     <row r="62">
       <c r="A62" t="n">
-        <v>109966908</v>
+        <v>106208508</v>
       </c>
       <c r="B62" t="n">
-        <v>96334</v>
+        <v>56411</v>
       </c>
       <c r="C62" t="inlineStr">
         <is>
@@ -7609,41 +7583,49 @@
       </c>
       <c r="D62" t="inlineStr">
         <is>
-          <t>VU</t>
+          <t>NT</t>
         </is>
       </c>
       <c r="E62" t="n">
-        <v>220787</v>
+        <v>100049</v>
       </c>
       <c r="F62" t="inlineStr">
         <is>
-          <t>Knärot</t>
+          <t>Spillkråka</t>
         </is>
       </c>
       <c r="G62" t="inlineStr">
         <is>
-          <t>Goodyera repens</t>
+          <t>Dryocopus martius</t>
         </is>
       </c>
       <c r="H62" t="inlineStr">
         <is>
-          <t>(L.) R. Br.</t>
+          <t>(Linnaeus, 1758)</t>
         </is>
       </c>
       <c r="I62" t="inlineStr"/>
+      <c r="K62" t="inlineStr"/>
+      <c r="L62" t="inlineStr"/>
+      <c r="M62" t="inlineStr">
+        <is>
+          <t>äldre spår</t>
+        </is>
+      </c>
+      <c r="N62" t="inlineStr"/>
       <c r="P62" t="inlineStr">
         <is>
           <t>Ängesträsket, Lu lm</t>
         </is>
       </c>
       <c r="Q62" t="n">
-        <v>738106.4700305666</v>
+        <v>738194.9111696251</v>
       </c>
       <c r="R62" t="n">
-        <v>7364808.699641061</v>
+        <v>7364686.945022388</v>
       </c>
       <c r="S62" t="n">
-        <v>20</v>
+        <v>10</v>
       </c>
       <c r="T62" t="inlineStr">
         <is>
@@ -7667,7 +7649,7 @@
       </c>
       <c r="Y62" t="inlineStr">
         <is>
-          <t>2023-06-10</t>
+          <t>2023-01-28</t>
         </is>
       </c>
       <c r="Z62" t="inlineStr">
@@ -7677,7 +7659,7 @@
       </c>
       <c r="AA62" t="inlineStr">
         <is>
-          <t>2023-06-10</t>
+          <t>2023-01-28</t>
         </is>
       </c>
       <c r="AB62" t="inlineStr">
@@ -7687,7 +7669,7 @@
       </c>
       <c r="AC62" t="inlineStr">
         <is>
-          <t>Ca 200 exemplar</t>
+          <t>Hål i nedre del av brandpåverkad högstubbe.</t>
         </is>
       </c>
       <c r="AD62" t="b">
@@ -7698,26 +7680,36 @@
       </c>
       <c r="AG62" t="b">
         <v>0</v>
+      </c>
+      <c r="AM62" t="inlineStr">
+        <is>
+          <t>Stående död trädstam/högstubbe</t>
+        </is>
+      </c>
+      <c r="AO62" t="inlineStr">
+        <is>
+          <t>Standing dead tree/snags</t>
+        </is>
       </c>
       <c r="AT62" t="inlineStr"/>
       <c r="AW62" t="inlineStr">
         <is>
-          <t>Amanda Tas</t>
+          <t>Ida Jansson</t>
         </is>
       </c>
       <c r="AX62" t="inlineStr">
         <is>
-          <t>Amanda Tas</t>
+          <t>Ida Jansson, Cecilia Lundin</t>
         </is>
       </c>
       <c r="AY62" t="inlineStr"/>
     </row>
     <row r="63">
       <c r="A63" t="n">
-        <v>109966855</v>
+        <v>109966866</v>
       </c>
       <c r="B63" t="n">
-        <v>95519</v>
+        <v>77259</v>
       </c>
       <c r="C63" t="inlineStr">
         <is>
@@ -7726,25 +7718,25 @@
       </c>
       <c r="D63" t="inlineStr">
         <is>
-          <t>LC</t>
+          <t>NT</t>
         </is>
       </c>
       <c r="E63" t="n">
-        <v>221945</v>
+        <v>228912</v>
       </c>
       <c r="F63" t="inlineStr">
         <is>
-          <t>Revlummer</t>
+          <t>Mörk kolflarnlav</t>
         </is>
       </c>
       <c r="G63" t="inlineStr">
         <is>
-          <t>Lycopodium annotinum</t>
+          <t>Carbonicola myrmecina</t>
         </is>
       </c>
       <c r="H63" t="inlineStr">
         <is>
-          <t>L.</t>
+          <t>(Ach.) Bendiksby &amp; Timdal</t>
         </is>
       </c>
       <c r="I63" t="inlineStr"/>
@@ -7754,10 +7746,10 @@
         </is>
       </c>
       <c r="Q63" t="n">
-        <v>738065.7508606352</v>
+        <v>738302.1176851427</v>
       </c>
       <c r="R63" t="n">
-        <v>7364840.38029578</v>
+        <v>7364283.520857141</v>
       </c>
       <c r="S63" t="n">
         <v>20</v>
@@ -7826,10 +7818,10 @@
     </row>
     <row r="64">
       <c r="A64" t="n">
-        <v>109966826</v>
+        <v>109966820</v>
       </c>
       <c r="B64" t="n">
-        <v>78072</v>
+        <v>78098</v>
       </c>
       <c r="C64" t="inlineStr">
         <is>
@@ -7842,21 +7834,21 @@
         </is>
       </c>
       <c r="E64" t="n">
-        <v>229821</v>
+        <v>6453</v>
       </c>
       <c r="F64" t="inlineStr">
         <is>
-          <t>Vedflamlav</t>
+          <t>Vedskivlav</t>
         </is>
       </c>
       <c r="G64" t="inlineStr">
         <is>
-          <t>Ramboldia elabens</t>
+          <t>Hertelidea botryosa</t>
         </is>
       </c>
       <c r="H64" t="inlineStr">
         <is>
-          <t>(Fr.) Kantvilas &amp; Elix</t>
+          <t>(Fr.) Printzen &amp; Kantvilas</t>
         </is>
       </c>
       <c r="I64" t="inlineStr"/>
@@ -7866,10 +7858,10 @@
         </is>
       </c>
       <c r="Q64" t="n">
-        <v>738314.9608971486</v>
+        <v>738249.3004084504</v>
       </c>
       <c r="R64" t="n">
-        <v>7364289.465264315</v>
+        <v>7364428.533740108</v>
       </c>
       <c r="S64" t="n">
         <v>20</v>
@@ -7938,7 +7930,7 @@
     </row>
     <row r="65">
       <c r="A65" t="n">
-        <v>109966914</v>
+        <v>109966909</v>
       </c>
       <c r="B65" t="n">
         <v>96334</v>
@@ -7978,10 +7970,10 @@
         </is>
       </c>
       <c r="Q65" t="n">
-        <v>738146.4032974378</v>
+        <v>738117.5087568547</v>
       </c>
       <c r="R65" t="n">
-        <v>7364805.234314212</v>
+        <v>7364793.075095916</v>
       </c>
       <c r="S65" t="n">
         <v>20</v>
@@ -8028,7 +8020,7 @@
       </c>
       <c r="AC65" t="inlineStr">
         <is>
-          <t>Ca 10 exemplar</t>
+          <t>Ca 30 exemplar</t>
         </is>
       </c>
       <c r="AD65" t="b">
@@ -8055,10 +8047,10 @@
     </row>
     <row r="66">
       <c r="A66" t="n">
-        <v>109966865</v>
+        <v>109966861</v>
       </c>
       <c r="B66" t="n">
-        <v>77259</v>
+        <v>77532</v>
       </c>
       <c r="C66" t="inlineStr">
         <is>
@@ -8067,25 +8059,25 @@
       </c>
       <c r="D66" t="inlineStr">
         <is>
-          <t>NT</t>
+          <t>LC</t>
         </is>
       </c>
       <c r="E66" t="n">
-        <v>228912</v>
+        <v>6434</v>
       </c>
       <c r="F66" t="inlineStr">
         <is>
-          <t>Mörk kolflarnlav</t>
+          <t>Nästlav</t>
         </is>
       </c>
       <c r="G66" t="inlineStr">
         <is>
-          <t>Carbonicola myrmecina</t>
+          <t>Bryoria furcellata</t>
         </is>
       </c>
       <c r="H66" t="inlineStr">
         <is>
-          <t>(Ach.) Bendiksby &amp; Timdal</t>
+          <t>(Fr.) Brodo &amp; D.Hawksw.</t>
         </is>
       </c>
       <c r="I66" t="inlineStr"/>
@@ -8095,10 +8087,10 @@
         </is>
       </c>
       <c r="Q66" t="n">
-        <v>738244.1137144268</v>
+        <v>738269.4800388551</v>
       </c>
       <c r="R66" t="n">
-        <v>7364427.687484496</v>
+        <v>7364338.929123218</v>
       </c>
       <c r="S66" t="n">
         <v>20</v>
@@ -8167,7 +8159,7 @@
     </row>
     <row r="67">
       <c r="A67" t="n">
-        <v>109966916</v>
+        <v>109966910</v>
       </c>
       <c r="B67" t="n">
         <v>96334</v>
@@ -8207,10 +8199,10 @@
         </is>
       </c>
       <c r="Q67" t="n">
-        <v>738130.4610504196</v>
+        <v>738094.5859668213</v>
       </c>
       <c r="R67" t="n">
-        <v>7364792.966797796</v>
+        <v>7364791.52579218</v>
       </c>
       <c r="S67" t="n">
         <v>20</v>
@@ -8257,7 +8249,7 @@
       </c>
       <c r="AC67" t="inlineStr">
         <is>
-          <t>Ca 5 exemplar</t>
+          <t>Ca 20 exemplar</t>
         </is>
       </c>
       <c r="AD67" t="b">
@@ -8284,10 +8276,10 @@
     </row>
     <row r="68">
       <c r="A68" t="n">
-        <v>109966921</v>
+        <v>109966822</v>
       </c>
       <c r="B68" t="n">
-        <v>77506</v>
+        <v>78098</v>
       </c>
       <c r="C68" t="inlineStr">
         <is>
@@ -8300,21 +8292,21 @@
         </is>
       </c>
       <c r="E68" t="n">
-        <v>6425</v>
+        <v>6453</v>
       </c>
       <c r="F68" t="inlineStr">
         <is>
-          <t>Garnlav</t>
+          <t>Vedskivlav</t>
         </is>
       </c>
       <c r="G68" t="inlineStr">
         <is>
-          <t>Alectoria sarmentosa</t>
+          <t>Hertelidea botryosa</t>
         </is>
       </c>
       <c r="H68" t="inlineStr">
         <is>
-          <t>(Ach.) Ach.</t>
+          <t>(Fr.) Printzen &amp; Kantvilas</t>
         </is>
       </c>
       <c r="I68" t="inlineStr"/>
@@ -8324,10 +8316,10 @@
         </is>
       </c>
       <c r="Q68" t="n">
-        <v>738314.9608971486</v>
+        <v>738362.2771508534</v>
       </c>
       <c r="R68" t="n">
-        <v>7364289.465264315</v>
+        <v>7364280.164716368</v>
       </c>
       <c r="S68" t="n">
         <v>20</v>
@@ -8396,10 +8388,10 @@
     </row>
     <row r="69">
       <c r="A69" t="n">
-        <v>109972827</v>
+        <v>109966898</v>
       </c>
       <c r="B69" t="n">
-        <v>90653</v>
+        <v>77258</v>
       </c>
       <c r="C69" t="inlineStr">
         <is>
@@ -8408,25 +8400,25 @@
       </c>
       <c r="D69" t="inlineStr">
         <is>
-          <t>LC</t>
+          <t>NT</t>
         </is>
       </c>
       <c r="E69" t="n">
-        <v>4364</v>
+        <v>6446</v>
       </c>
       <c r="F69" t="inlineStr">
         <is>
-          <t>Dropptaggsvamp</t>
+          <t>Kolflarnlav</t>
         </is>
       </c>
       <c r="G69" t="inlineStr">
         <is>
-          <t>Hydnellum ferrugineum</t>
+          <t>Carbonicola anthracophila</t>
         </is>
       </c>
       <c r="H69" t="inlineStr">
         <is>
-          <t>(Fr.:Fr.) P. Karst.</t>
+          <t>(Nyl.) Bendiksby &amp; Timdal</t>
         </is>
       </c>
       <c r="I69" t="inlineStr"/>
@@ -8436,10 +8428,10 @@
         </is>
       </c>
       <c r="Q69" t="n">
-        <v>738159.8865130733</v>
+        <v>738189.0928880611</v>
       </c>
       <c r="R69" t="n">
-        <v>7364452.43095525</v>
+        <v>7364441.989472448</v>
       </c>
       <c r="S69" t="n">
         <v>20</v>
@@ -8484,11 +8476,6 @@
           <t>00:00</t>
         </is>
       </c>
-      <c r="AC69" t="inlineStr">
-        <is>
-          <t>2 exemplar</t>
-        </is>
-      </c>
       <c r="AD69" t="b">
         <v>0</v>
       </c>
@@ -8506,17 +8493,17 @@
       </c>
       <c r="AX69" t="inlineStr">
         <is>
-          <t>Cecilia Lundin</t>
+          <t>Amanda Tas</t>
         </is>
       </c>
       <c r="AY69" t="inlineStr"/>
     </row>
     <row r="70">
       <c r="A70" t="n">
-        <v>109972828</v>
+        <v>109966860</v>
       </c>
       <c r="B70" t="n">
-        <v>90653</v>
+        <v>77532</v>
       </c>
       <c r="C70" t="inlineStr">
         <is>
@@ -8529,21 +8516,21 @@
         </is>
       </c>
       <c r="E70" t="n">
-        <v>4364</v>
+        <v>6434</v>
       </c>
       <c r="F70" t="inlineStr">
         <is>
-          <t>Dropptaggsvamp</t>
+          <t>Nästlav</t>
         </is>
       </c>
       <c r="G70" t="inlineStr">
         <is>
-          <t>Hydnellum ferrugineum</t>
+          <t>Bryoria furcellata</t>
         </is>
       </c>
       <c r="H70" t="inlineStr">
         <is>
-          <t>(Fr.:Fr.) P. Karst.</t>
+          <t>(Fr.) Brodo &amp; D.Hawksw.</t>
         </is>
       </c>
       <c r="I70" t="inlineStr"/>
@@ -8553,10 +8540,10 @@
         </is>
       </c>
       <c r="Q70" t="n">
-        <v>738171.4824440586</v>
+        <v>738233.9446167898</v>
       </c>
       <c r="R70" t="n">
-        <v>7364425.537486619</v>
+        <v>7364442.579905941</v>
       </c>
       <c r="S70" t="n">
         <v>20</v>
@@ -8601,11 +8588,6 @@
           <t>00:00</t>
         </is>
       </c>
-      <c r="AC70" t="inlineStr">
-        <is>
-          <t>13 exemplar</t>
-        </is>
-      </c>
       <c r="AD70" t="b">
         <v>0</v>
       </c>
@@ -8623,17 +8605,17 @@
       </c>
       <c r="AX70" t="inlineStr">
         <is>
-          <t>Cecilia Lundin</t>
+          <t>Amanda Tas</t>
         </is>
       </c>
       <c r="AY70" t="inlineStr"/>
     </row>
     <row r="71">
       <c r="A71" t="n">
-        <v>109972789</v>
+        <v>109966821</v>
       </c>
       <c r="B71" t="n">
-        <v>77259</v>
+        <v>78098</v>
       </c>
       <c r="C71" t="inlineStr">
         <is>
@@ -8646,21 +8628,21 @@
         </is>
       </c>
       <c r="E71" t="n">
-        <v>228912</v>
+        <v>6453</v>
       </c>
       <c r="F71" t="inlineStr">
         <is>
-          <t>Mörk kolflarnlav</t>
+          <t>Vedskivlav</t>
         </is>
       </c>
       <c r="G71" t="inlineStr">
         <is>
-          <t>Carbonicola myrmecina</t>
+          <t>Hertelidea botryosa</t>
         </is>
       </c>
       <c r="H71" t="inlineStr">
         <is>
-          <t>(Ach.) Bendiksby &amp; Timdal</t>
+          <t>(Fr.) Printzen &amp; Kantvilas</t>
         </is>
       </c>
       <c r="I71" t="inlineStr"/>
@@ -8670,10 +8652,10 @@
         </is>
       </c>
       <c r="Q71" t="n">
-        <v>737556.2356602531</v>
+        <v>738256.2127124236</v>
       </c>
       <c r="R71" t="n">
-        <v>7365143.640109975</v>
+        <v>7364437.608836009</v>
       </c>
       <c r="S71" t="n">
         <v>20</v>
@@ -8724,7 +8706,6 @@
       <c r="AE71" t="b">
         <v>0</v>
       </c>
-      <c r="AF71" t="inlineStr"/>
       <c r="AG71" t="b">
         <v>0</v>
       </c>
@@ -8736,17 +8717,17 @@
       </c>
       <c r="AX71" t="inlineStr">
         <is>
-          <t>Cecilia Lundin</t>
+          <t>Amanda Tas</t>
         </is>
       </c>
       <c r="AY71" t="inlineStr"/>
     </row>
     <row r="72">
       <c r="A72" t="n">
-        <v>109972803</v>
+        <v>109966912</v>
       </c>
       <c r="B72" t="n">
-        <v>56395</v>
+        <v>96334</v>
       </c>
       <c r="C72" t="inlineStr">
         <is>
@@ -8755,25 +8736,25 @@
       </c>
       <c r="D72" t="inlineStr">
         <is>
-          <t>NT</t>
+          <t>VU</t>
         </is>
       </c>
       <c r="E72" t="n">
-        <v>100109</v>
+        <v>220787</v>
       </c>
       <c r="F72" t="inlineStr">
         <is>
-          <t>Tretåig hackspett</t>
+          <t>Knärot</t>
         </is>
       </c>
       <c r="G72" t="inlineStr">
         <is>
-          <t>Picoides tridactylus</t>
+          <t>Goodyera repens</t>
         </is>
       </c>
       <c r="H72" t="inlineStr">
         <is>
-          <t>(Linnaeus, 1758)</t>
+          <t>(L.) R. Br.</t>
         </is>
       </c>
       <c r="I72" t="inlineStr"/>
@@ -8783,10 +8764,10 @@
         </is>
       </c>
       <c r="Q72" t="n">
-        <v>738386.6774518978</v>
+        <v>738136.458849099</v>
       </c>
       <c r="R72" t="n">
-        <v>7364245.47152841</v>
+        <v>7364789.033600956</v>
       </c>
       <c r="S72" t="n">
         <v>20</v>
@@ -8833,7 +8814,7 @@
       </c>
       <c r="AC72" t="inlineStr">
         <is>
-          <t>Varningsläte</t>
+          <t>Ca 20 exemplar</t>
         </is>
       </c>
       <c r="AD72" t="b">
@@ -8853,17 +8834,17 @@
       </c>
       <c r="AX72" t="inlineStr">
         <is>
-          <t>Cecilia Lundin</t>
+          <t>Amanda Tas</t>
         </is>
       </c>
       <c r="AY72" t="inlineStr"/>
     </row>
     <row r="73">
       <c r="A73" t="n">
-        <v>109972795</v>
+        <v>109966908</v>
       </c>
       <c r="B73" t="n">
-        <v>78527</v>
+        <v>96334</v>
       </c>
       <c r="C73" t="inlineStr">
         <is>
@@ -8872,25 +8853,25 @@
       </c>
       <c r="D73" t="inlineStr">
         <is>
-          <t>LC</t>
+          <t>VU</t>
         </is>
       </c>
       <c r="E73" t="n">
-        <v>229497</v>
+        <v>220787</v>
       </c>
       <c r="F73" t="inlineStr">
         <is>
-          <t>Korallblylav</t>
+          <t>Knärot</t>
         </is>
       </c>
       <c r="G73" t="inlineStr">
         <is>
-          <t>Parmeliella triptophylla</t>
+          <t>Goodyera repens</t>
         </is>
       </c>
       <c r="H73" t="inlineStr">
         <is>
-          <t>(Ach.) Müll.Arg.</t>
+          <t>(L.) R. Br.</t>
         </is>
       </c>
       <c r="I73" t="inlineStr"/>
@@ -8900,10 +8881,10 @@
         </is>
       </c>
       <c r="Q73" t="n">
-        <v>737673.8844158245</v>
+        <v>738106.4700305666</v>
       </c>
       <c r="R73" t="n">
-        <v>7365086.990749126</v>
+        <v>7364808.699641061</v>
       </c>
       <c r="S73" t="n">
         <v>20</v>
@@ -8948,6 +8929,11 @@
           <t>00:00</t>
         </is>
       </c>
+      <c r="AC73" t="inlineStr">
+        <is>
+          <t>Ca 200 exemplar</t>
+        </is>
+      </c>
       <c r="AD73" t="b">
         <v>0</v>
       </c>
@@ -8965,17 +8951,17 @@
       </c>
       <c r="AX73" t="inlineStr">
         <is>
-          <t>Cecilia Lundin</t>
+          <t>Amanda Tas</t>
         </is>
       </c>
       <c r="AY73" t="inlineStr"/>
     </row>
     <row r="74">
       <c r="A74" t="n">
-        <v>109972801</v>
+        <v>109966855</v>
       </c>
       <c r="B74" t="n">
-        <v>78098</v>
+        <v>95519</v>
       </c>
       <c r="C74" t="inlineStr">
         <is>
@@ -8984,25 +8970,25 @@
       </c>
       <c r="D74" t="inlineStr">
         <is>
-          <t>NT</t>
+          <t>LC</t>
         </is>
       </c>
       <c r="E74" t="n">
-        <v>6453</v>
+        <v>221945</v>
       </c>
       <c r="F74" t="inlineStr">
         <is>
-          <t>Vedskivlav</t>
+          <t>Revlummer</t>
         </is>
       </c>
       <c r="G74" t="inlineStr">
         <is>
-          <t>Hertelidea botryosa</t>
+          <t>Lycopodium annotinum</t>
         </is>
       </c>
       <c r="H74" t="inlineStr">
         <is>
-          <t>(Fr.) Printzen &amp; Kantvilas</t>
+          <t>L.</t>
         </is>
       </c>
       <c r="I74" t="inlineStr"/>
@@ -9012,10 +8998,10 @@
         </is>
       </c>
       <c r="Q74" t="n">
-        <v>738222.7505537707</v>
+        <v>738065.7508606352</v>
       </c>
       <c r="R74" t="n">
-        <v>7364450.515500427</v>
+        <v>7364840.38029578</v>
       </c>
       <c r="S74" t="n">
         <v>20</v>
@@ -9077,17 +9063,17 @@
       </c>
       <c r="AX74" t="inlineStr">
         <is>
-          <t>Cecilia Lundin</t>
+          <t>Amanda Tas</t>
         </is>
       </c>
       <c r="AY74" t="inlineStr"/>
     </row>
     <row r="75">
       <c r="A75" t="n">
-        <v>109972818</v>
+        <v>109966826</v>
       </c>
       <c r="B75" t="n">
-        <v>96334</v>
+        <v>78072</v>
       </c>
       <c r="C75" t="inlineStr">
         <is>
@@ -9096,25 +9082,25 @@
       </c>
       <c r="D75" t="inlineStr">
         <is>
-          <t>VU</t>
+          <t>NT</t>
         </is>
       </c>
       <c r="E75" t="n">
-        <v>220787</v>
+        <v>229821</v>
       </c>
       <c r="F75" t="inlineStr">
         <is>
-          <t>Knärot</t>
+          <t>Vedflamlav</t>
         </is>
       </c>
       <c r="G75" t="inlineStr">
         <is>
-          <t>Goodyera repens</t>
+          <t>Ramboldia elabens</t>
         </is>
       </c>
       <c r="H75" t="inlineStr">
         <is>
-          <t>(L.) R. Br.</t>
+          <t>(Fr.) Kantvilas &amp; Elix</t>
         </is>
       </c>
       <c r="I75" t="inlineStr"/>
@@ -9124,10 +9110,10 @@
         </is>
       </c>
       <c r="Q75" t="n">
-        <v>738132.4688229209</v>
+        <v>738314.9608971486</v>
       </c>
       <c r="R75" t="n">
-        <v>7364793.137905722</v>
+        <v>7364289.465264315</v>
       </c>
       <c r="S75" t="n">
         <v>20</v>
@@ -9172,11 +9158,6 @@
           <t>00:00</t>
         </is>
       </c>
-      <c r="AC75" t="inlineStr">
-        <is>
-          <t>5 exemplar</t>
-        </is>
-      </c>
       <c r="AD75" t="b">
         <v>0</v>
       </c>
@@ -9194,17 +9175,17 @@
       </c>
       <c r="AX75" t="inlineStr">
         <is>
-          <t>Cecilia Lundin</t>
+          <t>Amanda Tas</t>
         </is>
       </c>
       <c r="AY75" t="inlineStr"/>
     </row>
     <row r="76">
       <c r="A76" t="n">
-        <v>109972810</v>
+        <v>109966914</v>
       </c>
       <c r="B76" t="n">
-        <v>77259</v>
+        <v>96334</v>
       </c>
       <c r="C76" t="inlineStr">
         <is>
@@ -9213,25 +9194,25 @@
       </c>
       <c r="D76" t="inlineStr">
         <is>
-          <t>NT</t>
+          <t>VU</t>
         </is>
       </c>
       <c r="E76" t="n">
-        <v>228912</v>
+        <v>220787</v>
       </c>
       <c r="F76" t="inlineStr">
         <is>
-          <t>Mörk kolflarnlav</t>
+          <t>Knärot</t>
         </is>
       </c>
       <c r="G76" t="inlineStr">
         <is>
-          <t>Carbonicola myrmecina</t>
+          <t>Goodyera repens</t>
         </is>
       </c>
       <c r="H76" t="inlineStr">
         <is>
-          <t>(Ach.) Bendiksby &amp; Timdal</t>
+          <t>(L.) R. Br.</t>
         </is>
       </c>
       <c r="I76" t="inlineStr"/>
@@ -9241,10 +9222,10 @@
         </is>
       </c>
       <c r="Q76" t="n">
-        <v>738269.7635385029</v>
+        <v>738146.4032974378</v>
       </c>
       <c r="R76" t="n">
-        <v>7364311.87849358</v>
+        <v>7364805.234314212</v>
       </c>
       <c r="S76" t="n">
         <v>20</v>
@@ -9289,6 +9270,11 @@
           <t>00:00</t>
         </is>
       </c>
+      <c r="AC76" t="inlineStr">
+        <is>
+          <t>Ca 10 exemplar</t>
+        </is>
+      </c>
       <c r="AD76" t="b">
         <v>0</v>
       </c>
@@ -9306,17 +9292,17 @@
       </c>
       <c r="AX76" t="inlineStr">
         <is>
-          <t>Cecilia Lundin</t>
+          <t>Amanda Tas</t>
         </is>
       </c>
       <c r="AY76" t="inlineStr"/>
     </row>
     <row r="77">
       <c r="A77" t="n">
-        <v>109972802</v>
+        <v>109966865</v>
       </c>
       <c r="B77" t="n">
-        <v>78072</v>
+        <v>77259</v>
       </c>
       <c r="C77" t="inlineStr">
         <is>
@@ -9329,21 +9315,21 @@
         </is>
       </c>
       <c r="E77" t="n">
-        <v>229821</v>
+        <v>228912</v>
       </c>
       <c r="F77" t="inlineStr">
         <is>
-          <t>Vedflamlav</t>
+          <t>Mörk kolflarnlav</t>
         </is>
       </c>
       <c r="G77" t="inlineStr">
         <is>
-          <t>Ramboldia elabens</t>
+          <t>Carbonicola myrmecina</t>
         </is>
       </c>
       <c r="H77" t="inlineStr">
         <is>
-          <t>(Fr.) Kantvilas &amp; Elix</t>
+          <t>(Ach.) Bendiksby &amp; Timdal</t>
         </is>
       </c>
       <c r="I77" t="inlineStr"/>
@@ -9353,10 +9339,10 @@
         </is>
       </c>
       <c r="Q77" t="n">
-        <v>738278.4613306134</v>
+        <v>738244.1137144268</v>
       </c>
       <c r="R77" t="n">
-        <v>7364333.229240757</v>
+        <v>7364427.687484496</v>
       </c>
       <c r="S77" t="n">
         <v>20</v>
@@ -9418,17 +9404,17 @@
       </c>
       <c r="AX77" t="inlineStr">
         <is>
-          <t>Cecilia Lundin</t>
+          <t>Amanda Tas</t>
         </is>
       </c>
       <c r="AY77" t="inlineStr"/>
     </row>
     <row r="78">
       <c r="A78" t="n">
-        <v>109972814</v>
+        <v>109966916</v>
       </c>
       <c r="B78" t="n">
-        <v>77258</v>
+        <v>96334</v>
       </c>
       <c r="C78" t="inlineStr">
         <is>
@@ -9437,25 +9423,25 @@
       </c>
       <c r="D78" t="inlineStr">
         <is>
-          <t>NT</t>
+          <t>VU</t>
         </is>
       </c>
       <c r="E78" t="n">
-        <v>6446</v>
+        <v>220787</v>
       </c>
       <c r="F78" t="inlineStr">
         <is>
-          <t>Kolflarnlav</t>
+          <t>Knärot</t>
         </is>
       </c>
       <c r="G78" t="inlineStr">
         <is>
-          <t>Carbonicola anthracophila</t>
+          <t>Goodyera repens</t>
         </is>
       </c>
       <c r="H78" t="inlineStr">
         <is>
-          <t>(Nyl.) Bendiksby &amp; Timdal</t>
+          <t>(L.) R. Br.</t>
         </is>
       </c>
       <c r="I78" t="inlineStr"/>
@@ -9465,10 +9451,10 @@
         </is>
       </c>
       <c r="Q78" t="n">
-        <v>738271.5322346961</v>
+        <v>738130.4610504196</v>
       </c>
       <c r="R78" t="n">
-        <v>7364314.858006466</v>
+        <v>7364792.966797796</v>
       </c>
       <c r="S78" t="n">
         <v>20</v>
@@ -9513,13 +9499,17 @@
           <t>00:00</t>
         </is>
       </c>
+      <c r="AC78" t="inlineStr">
+        <is>
+          <t>Ca 5 exemplar</t>
+        </is>
+      </c>
       <c r="AD78" t="b">
         <v>0</v>
       </c>
       <c r="AE78" t="b">
         <v>0</v>
       </c>
-      <c r="AF78" t="inlineStr"/>
       <c r="AG78" t="b">
         <v>0</v>
       </c>
@@ -9531,17 +9521,17 @@
       </c>
       <c r="AX78" t="inlineStr">
         <is>
-          <t>Cecilia Lundin</t>
+          <t>Amanda Tas</t>
         </is>
       </c>
       <c r="AY78" t="inlineStr"/>
     </row>
     <row r="79">
       <c r="A79" t="n">
-        <v>109972809</v>
+        <v>109966921</v>
       </c>
       <c r="B79" t="n">
-        <v>95519</v>
+        <v>77506</v>
       </c>
       <c r="C79" t="inlineStr">
         <is>
@@ -9550,25 +9540,25 @@
       </c>
       <c r="D79" t="inlineStr">
         <is>
-          <t>LC</t>
+          <t>NT</t>
         </is>
       </c>
       <c r="E79" t="n">
-        <v>221945</v>
+        <v>6425</v>
       </c>
       <c r="F79" t="inlineStr">
         <is>
-          <t>Revlummer</t>
+          <t>Garnlav</t>
         </is>
       </c>
       <c r="G79" t="inlineStr">
         <is>
-          <t>Lycopodium annotinum</t>
+          <t>Alectoria sarmentosa</t>
         </is>
       </c>
       <c r="H79" t="inlineStr">
         <is>
-          <t>L.</t>
+          <t>(Ach.) Ach.</t>
         </is>
       </c>
       <c r="I79" t="inlineStr"/>
@@ -9578,10 +9568,10 @@
         </is>
       </c>
       <c r="Q79" t="n">
-        <v>738277.5432202322</v>
+        <v>738314.9608971486</v>
       </c>
       <c r="R79" t="n">
-        <v>7364396.189959766</v>
+        <v>7364289.465264315</v>
       </c>
       <c r="S79" t="n">
         <v>20</v>
@@ -9643,14 +9633,14 @@
       </c>
       <c r="AX79" t="inlineStr">
         <is>
-          <t>Cecilia Lundin</t>
+          <t>Amanda Tas</t>
         </is>
       </c>
       <c r="AY79" t="inlineStr"/>
     </row>
     <row r="80">
       <c r="A80" t="n">
-        <v>109972799</v>
+        <v>109972827</v>
       </c>
       <c r="B80" t="n">
         <v>90653</v>
@@ -9690,10 +9680,10 @@
         </is>
       </c>
       <c r="Q80" t="n">
-        <v>737558.2927393621</v>
+        <v>738159.8865130733</v>
       </c>
       <c r="R80" t="n">
-        <v>7365133.715847082</v>
+        <v>7364452.43095525</v>
       </c>
       <c r="S80" t="n">
         <v>20</v>
@@ -9740,7 +9730,7 @@
       </c>
       <c r="AC80" t="inlineStr">
         <is>
-          <t>6 exemplar</t>
+          <t>2 exemplar</t>
         </is>
       </c>
       <c r="AD80" t="b">
@@ -9767,10 +9757,10 @@
     </row>
     <row r="81">
       <c r="A81" t="n">
-        <v>109972791</v>
+        <v>109972828</v>
       </c>
       <c r="B81" t="n">
-        <v>78569</v>
+        <v>90653</v>
       </c>
       <c r="C81" t="inlineStr">
         <is>
@@ -9779,25 +9769,25 @@
       </c>
       <c r="D81" t="inlineStr">
         <is>
-          <t>NT</t>
+          <t>LC</t>
         </is>
       </c>
       <c r="E81" t="n">
-        <v>6458</v>
+        <v>4364</v>
       </c>
       <c r="F81" t="inlineStr">
         <is>
-          <t>Lunglav</t>
+          <t>Dropptaggsvamp</t>
         </is>
       </c>
       <c r="G81" t="inlineStr">
         <is>
-          <t>Lobaria pulmonaria</t>
+          <t>Hydnellum ferrugineum</t>
         </is>
       </c>
       <c r="H81" t="inlineStr">
         <is>
-          <t>(L.) Hoffm.</t>
+          <t>(Fr.:Fr.) P. Karst.</t>
         </is>
       </c>
       <c r="I81" t="inlineStr"/>
@@ -9807,10 +9797,10 @@
         </is>
       </c>
       <c r="Q81" t="n">
-        <v>737673.8844158245</v>
+        <v>738171.4824440586</v>
       </c>
       <c r="R81" t="n">
-        <v>7365086.990749126</v>
+        <v>7364425.537486619</v>
       </c>
       <c r="S81" t="n">
         <v>20</v>
@@ -9853,6 +9843,11 @@
       <c r="AB81" t="inlineStr">
         <is>
           <t>00:00</t>
+        </is>
+      </c>
+      <c r="AC81" t="inlineStr">
+        <is>
+          <t>13 exemplar</t>
         </is>
       </c>
       <c r="AD81" t="b">
@@ -9879,10 +9874,10 @@
     </row>
     <row r="82">
       <c r="A82" t="n">
-        <v>109972822</v>
+        <v>109972803</v>
       </c>
       <c r="B82" t="n">
-        <v>77506</v>
+        <v>56395</v>
       </c>
       <c r="C82" t="inlineStr">
         <is>
@@ -9895,21 +9890,21 @@
         </is>
       </c>
       <c r="E82" t="n">
-        <v>6425</v>
+        <v>100109</v>
       </c>
       <c r="F82" t="inlineStr">
         <is>
-          <t>Garnlav</t>
+          <t>Tretåig hackspett</t>
         </is>
       </c>
       <c r="G82" t="inlineStr">
         <is>
-          <t>Alectoria sarmentosa</t>
+          <t>Picoides tridactylus</t>
         </is>
       </c>
       <c r="H82" t="inlineStr">
         <is>
-          <t>(Ach.) Ach.</t>
+          <t>(Linnaeus, 1758)</t>
         </is>
       </c>
       <c r="I82" t="inlineStr"/>
@@ -9919,10 +9914,10 @@
         </is>
       </c>
       <c r="Q82" t="n">
-        <v>738279.5424344284</v>
+        <v>738386.6774518978</v>
       </c>
       <c r="R82" t="n">
-        <v>7364401.209510702</v>
+        <v>7364245.47152841</v>
       </c>
       <c r="S82" t="n">
         <v>20</v>
@@ -9965,6 +9960,11 @@
       <c r="AB82" t="inlineStr">
         <is>
           <t>00:00</t>
+        </is>
+      </c>
+      <c r="AC82" t="inlineStr">
+        <is>
+          <t>Varningsläte</t>
         </is>
       </c>
       <c r="AD82" t="b">
@@ -9991,10 +9991,10 @@
     </row>
     <row r="83">
       <c r="A83" t="n">
-        <v>109972792</v>
+        <v>109972801</v>
       </c>
       <c r="B83" t="n">
-        <v>78603</v>
+        <v>78098</v>
       </c>
       <c r="C83" t="inlineStr">
         <is>
@@ -10003,25 +10003,25 @@
       </c>
       <c r="D83" t="inlineStr">
         <is>
-          <t>LC</t>
+          <t>NT</t>
         </is>
       </c>
       <c r="E83" t="n">
-        <v>6464</v>
+        <v>6453</v>
       </c>
       <c r="F83" t="inlineStr">
         <is>
-          <t>Luddlav</t>
+          <t>Vedskivlav</t>
         </is>
       </c>
       <c r="G83" t="inlineStr">
         <is>
-          <t>Nephroma resupinatum</t>
+          <t>Hertelidea botryosa</t>
         </is>
       </c>
       <c r="H83" t="inlineStr">
         <is>
-          <t>(L.) Ach.</t>
+          <t>(Fr.) Printzen &amp; Kantvilas</t>
         </is>
       </c>
       <c r="I83" t="inlineStr"/>
@@ -10031,10 +10031,10 @@
         </is>
       </c>
       <c r="Q83" t="n">
-        <v>737673.8844158245</v>
+        <v>738222.7505537707</v>
       </c>
       <c r="R83" t="n">
-        <v>7365086.990749126</v>
+        <v>7364450.515500427</v>
       </c>
       <c r="S83" t="n">
         <v>20</v>
@@ -10103,10 +10103,10 @@
     </row>
     <row r="84">
       <c r="A84" t="n">
-        <v>109972823</v>
+        <v>109972818</v>
       </c>
       <c r="B84" t="n">
-        <v>77177</v>
+        <v>96334</v>
       </c>
       <c r="C84" t="inlineStr">
         <is>
@@ -10115,25 +10115,25 @@
       </c>
       <c r="D84" t="inlineStr">
         <is>
-          <t>NT</t>
+          <t>VU</t>
         </is>
       </c>
       <c r="E84" t="n">
-        <v>353</v>
+        <v>220787</v>
       </c>
       <c r="F84" t="inlineStr">
         <is>
-          <t>Dvärgbägarlav</t>
+          <t>Knärot</t>
         </is>
       </c>
       <c r="G84" t="inlineStr">
         <is>
-          <t>Cladonia parasitica</t>
+          <t>Goodyera repens</t>
         </is>
       </c>
       <c r="H84" t="inlineStr">
         <is>
-          <t>(Hoffm.) Hoffm.</t>
+          <t>(L.) R. Br.</t>
         </is>
       </c>
       <c r="I84" t="inlineStr"/>
@@ -10143,10 +10143,10 @@
         </is>
       </c>
       <c r="Q84" t="n">
-        <v>738316.1062487554</v>
+        <v>738132.4688229209</v>
       </c>
       <c r="R84" t="n">
-        <v>7364285.52184775</v>
+        <v>7364793.137905722</v>
       </c>
       <c r="S84" t="n">
         <v>20</v>
@@ -10189,6 +10189,11 @@
       <c r="AB84" t="inlineStr">
         <is>
           <t>00:00</t>
+        </is>
+      </c>
+      <c r="AC84" t="inlineStr">
+        <is>
+          <t>5 exemplar</t>
         </is>
       </c>
       <c r="AD84" t="b">
@@ -10215,10 +10220,10 @@
     </row>
     <row r="85">
       <c r="A85" t="n">
-        <v>109972806</v>
+        <v>109972810</v>
       </c>
       <c r="B85" t="n">
-        <v>56395</v>
+        <v>77259</v>
       </c>
       <c r="C85" t="inlineStr">
         <is>
@@ -10231,21 +10236,21 @@
         </is>
       </c>
       <c r="E85" t="n">
-        <v>100109</v>
+        <v>228912</v>
       </c>
       <c r="F85" t="inlineStr">
         <is>
-          <t>Tretåig hackspett</t>
+          <t>Mörk kolflarnlav</t>
         </is>
       </c>
       <c r="G85" t="inlineStr">
         <is>
-          <t>Picoides tridactylus</t>
+          <t>Carbonicola myrmecina</t>
         </is>
       </c>
       <c r="H85" t="inlineStr">
         <is>
-          <t>(Linnaeus, 1758)</t>
+          <t>(Ach.) Bendiksby &amp; Timdal</t>
         </is>
       </c>
       <c r="I85" t="inlineStr"/>
@@ -10255,10 +10260,10 @@
         </is>
       </c>
       <c r="Q85" t="n">
-        <v>738301.4360063055</v>
+        <v>738269.7635385029</v>
       </c>
       <c r="R85" t="n">
-        <v>7364253.558563569</v>
+        <v>7364311.87849358</v>
       </c>
       <c r="S85" t="n">
         <v>20</v>
@@ -10301,11 +10306,6 @@
       <c r="AB85" t="inlineStr">
         <is>
           <t>00:00</t>
-        </is>
-      </c>
-      <c r="AC85" t="inlineStr">
-        <is>
-          <t>Hackspår</t>
         </is>
       </c>
       <c r="AD85" t="b">
@@ -10332,10 +10332,10 @@
     </row>
     <row r="86">
       <c r="A86" t="n">
-        <v>109972819</v>
+        <v>109972802</v>
       </c>
       <c r="B86" t="n">
-        <v>96334</v>
+        <v>78072</v>
       </c>
       <c r="C86" t="inlineStr">
         <is>
@@ -10344,25 +10344,25 @@
       </c>
       <c r="D86" t="inlineStr">
         <is>
-          <t>VU</t>
+          <t>NT</t>
         </is>
       </c>
       <c r="E86" t="n">
-        <v>220787</v>
+        <v>229821</v>
       </c>
       <c r="F86" t="inlineStr">
         <is>
-          <t>Knärot</t>
+          <t>Vedflamlav</t>
         </is>
       </c>
       <c r="G86" t="inlineStr">
         <is>
-          <t>Goodyera repens</t>
+          <t>Ramboldia elabens</t>
         </is>
       </c>
       <c r="H86" t="inlineStr">
         <is>
-          <t>(L.) R. Br.</t>
+          <t>(Fr.) Kantvilas &amp; Elix</t>
         </is>
       </c>
       <c r="I86" t="inlineStr"/>
@@ -10372,10 +10372,10 @@
         </is>
       </c>
       <c r="Q86" t="n">
-        <v>738067.0666204885</v>
+        <v>738278.4613306134</v>
       </c>
       <c r="R86" t="n">
-        <v>7364815.442864676</v>
+        <v>7364333.229240757</v>
       </c>
       <c r="S86" t="n">
         <v>20</v>
@@ -10418,11 +10418,6 @@
       <c r="AB86" t="inlineStr">
         <is>
           <t>00:00</t>
-        </is>
-      </c>
-      <c r="AC86" t="inlineStr">
-        <is>
-          <t>30 exemplar</t>
         </is>
       </c>
       <c r="AD86" t="b">
@@ -10449,10 +10444,10 @@
     </row>
     <row r="87">
       <c r="A87" t="n">
-        <v>109972812</v>
+        <v>109972814</v>
       </c>
       <c r="B87" t="n">
-        <v>78603</v>
+        <v>77258</v>
       </c>
       <c r="C87" t="inlineStr">
         <is>
@@ -10461,25 +10456,25 @@
       </c>
       <c r="D87" t="inlineStr">
         <is>
-          <t>LC</t>
+          <t>NT</t>
         </is>
       </c>
       <c r="E87" t="n">
-        <v>6464</v>
+        <v>6446</v>
       </c>
       <c r="F87" t="inlineStr">
         <is>
-          <t>Luddlav</t>
+          <t>Kolflarnlav</t>
         </is>
       </c>
       <c r="G87" t="inlineStr">
         <is>
-          <t>Nephroma resupinatum</t>
+          <t>Carbonicola anthracophila</t>
         </is>
       </c>
       <c r="H87" t="inlineStr">
         <is>
-          <t>(L.) Ach.</t>
+          <t>(Nyl.) Bendiksby &amp; Timdal</t>
         </is>
       </c>
       <c r="I87" t="inlineStr"/>
@@ -10489,10 +10484,10 @@
         </is>
       </c>
       <c r="Q87" t="n">
-        <v>738266.287061495</v>
+        <v>738271.5322346961</v>
       </c>
       <c r="R87" t="n">
-        <v>7364438.06365197</v>
+        <v>7364314.858006466</v>
       </c>
       <c r="S87" t="n">
         <v>20</v>
@@ -10543,6 +10538,7 @@
       <c r="AE87" t="b">
         <v>0</v>
       </c>
+      <c r="AF87" t="inlineStr"/>
       <c r="AG87" t="b">
         <v>0</v>
       </c>
@@ -10561,10 +10557,10 @@
     </row>
     <row r="88">
       <c r="A88" t="n">
-        <v>109972784</v>
+        <v>109972809</v>
       </c>
       <c r="B88" t="n">
-        <v>78072</v>
+        <v>95519</v>
       </c>
       <c r="C88" t="inlineStr">
         <is>
@@ -10573,25 +10569,25 @@
       </c>
       <c r="D88" t="inlineStr">
         <is>
-          <t>NT</t>
+          <t>LC</t>
         </is>
       </c>
       <c r="E88" t="n">
-        <v>229821</v>
+        <v>221945</v>
       </c>
       <c r="F88" t="inlineStr">
         <is>
-          <t>Vedflamlav</t>
+          <t>Revlummer</t>
         </is>
       </c>
       <c r="G88" t="inlineStr">
         <is>
-          <t>Ramboldia elabens</t>
+          <t>Lycopodium annotinum</t>
         </is>
       </c>
       <c r="H88" t="inlineStr">
         <is>
-          <t>(Fr.) Kantvilas &amp; Elix</t>
+          <t>L.</t>
         </is>
       </c>
       <c r="I88" t="inlineStr"/>
@@ -10601,10 +10597,10 @@
         </is>
       </c>
       <c r="Q88" t="n">
-        <v>737536.9327365544</v>
+        <v>738277.5432202322</v>
       </c>
       <c r="R88" t="n">
-        <v>7365161.389157179</v>
+        <v>7364396.189959766</v>
       </c>
       <c r="S88" t="n">
         <v>20</v>
@@ -10673,10 +10669,10 @@
     </row>
     <row r="89">
       <c r="A89" t="n">
-        <v>109972825</v>
+        <v>109972822</v>
       </c>
       <c r="B89" t="n">
-        <v>90653</v>
+        <v>77506</v>
       </c>
       <c r="C89" t="inlineStr">
         <is>
@@ -10685,25 +10681,25 @@
       </c>
       <c r="D89" t="inlineStr">
         <is>
-          <t>LC</t>
+          <t>NT</t>
         </is>
       </c>
       <c r="E89" t="n">
-        <v>4364</v>
+        <v>6425</v>
       </c>
       <c r="F89" t="inlineStr">
         <is>
-          <t>Dropptaggsvamp</t>
+          <t>Garnlav</t>
         </is>
       </c>
       <c r="G89" t="inlineStr">
         <is>
-          <t>Hydnellum ferrugineum</t>
+          <t>Alectoria sarmentosa</t>
         </is>
       </c>
       <c r="H89" t="inlineStr">
         <is>
-          <t>(Fr.:Fr.) P. Karst.</t>
+          <t>(Ach.) Ach.</t>
         </is>
       </c>
       <c r="I89" t="inlineStr"/>
@@ -10713,10 +10709,10 @@
         </is>
       </c>
       <c r="Q89" t="n">
-        <v>738207.3106196746</v>
+        <v>738279.5424344284</v>
       </c>
       <c r="R89" t="n">
-        <v>7364437.076904429</v>
+        <v>7364401.209510702</v>
       </c>
       <c r="S89" t="n">
         <v>20</v>
@@ -10759,11 +10755,6 @@
       <c r="AB89" t="inlineStr">
         <is>
           <t>00:00</t>
-        </is>
-      </c>
-      <c r="AC89" t="inlineStr">
-        <is>
-          <t>4 exemplar</t>
         </is>
       </c>
       <c r="AD89" t="b">
@@ -10790,10 +10781,10 @@
     </row>
     <row r="90">
       <c r="A90" t="n">
-        <v>109972805</v>
+        <v>109972823</v>
       </c>
       <c r="B90" t="n">
-        <v>56395</v>
+        <v>77177</v>
       </c>
       <c r="C90" t="inlineStr">
         <is>
@@ -10806,21 +10797,21 @@
         </is>
       </c>
       <c r="E90" t="n">
-        <v>100109</v>
+        <v>353</v>
       </c>
       <c r="F90" t="inlineStr">
         <is>
-          <t>Tretåig hackspett</t>
+          <t>Dvärgbägarlav</t>
         </is>
       </c>
       <c r="G90" t="inlineStr">
         <is>
-          <t>Picoides tridactylus</t>
+          <t>Cladonia parasitica</t>
         </is>
       </c>
       <c r="H90" t="inlineStr">
         <is>
-          <t>(Linnaeus, 1758)</t>
+          <t>(Hoffm.) Hoffm.</t>
         </is>
       </c>
       <c r="I90" t="inlineStr"/>
@@ -10830,10 +10821,10 @@
         </is>
       </c>
       <c r="Q90" t="n">
-        <v>738147.8967334714</v>
+        <v>738316.1062487554</v>
       </c>
       <c r="R90" t="n">
-        <v>7364531.415991118</v>
+        <v>7364285.52184775</v>
       </c>
       <c r="S90" t="n">
         <v>20</v>
@@ -10876,11 +10867,6 @@
       <c r="AB90" t="inlineStr">
         <is>
           <t>00:00</t>
-        </is>
-      </c>
-      <c r="AC90" t="inlineStr">
-        <is>
-          <t>Hackspår</t>
         </is>
       </c>
       <c r="AD90" t="b">
@@ -10907,10 +10893,10 @@
     </row>
     <row r="91">
       <c r="A91" t="n">
-        <v>109972787</v>
+        <v>109972806</v>
       </c>
       <c r="B91" t="n">
-        <v>95519</v>
+        <v>56395</v>
       </c>
       <c r="C91" t="inlineStr">
         <is>
@@ -10919,25 +10905,25 @@
       </c>
       <c r="D91" t="inlineStr">
         <is>
-          <t>LC</t>
+          <t>NT</t>
         </is>
       </c>
       <c r="E91" t="n">
-        <v>221945</v>
+        <v>100109</v>
       </c>
       <c r="F91" t="inlineStr">
         <is>
-          <t>Revlummer</t>
+          <t>Tretåig hackspett</t>
         </is>
       </c>
       <c r="G91" t="inlineStr">
         <is>
-          <t>Lycopodium annotinum</t>
+          <t>Picoides tridactylus</t>
         </is>
       </c>
       <c r="H91" t="inlineStr">
         <is>
-          <t>L.</t>
+          <t>(Linnaeus, 1758)</t>
         </is>
       </c>
       <c r="I91" t="inlineStr"/>
@@ -10947,10 +10933,10 @@
         </is>
       </c>
       <c r="Q91" t="n">
-        <v>737720.0981711294</v>
+        <v>738301.4360063055</v>
       </c>
       <c r="R91" t="n">
-        <v>7365066.683736216</v>
+        <v>7364253.558563569</v>
       </c>
       <c r="S91" t="n">
         <v>20</v>
@@ -10993,6 +10979,11 @@
       <c r="AB91" t="inlineStr">
         <is>
           <t>00:00</t>
+        </is>
+      </c>
+      <c r="AC91" t="inlineStr">
+        <is>
+          <t>Hackspår</t>
         </is>
       </c>
       <c r="AD91" t="b">
@@ -11019,10 +11010,10 @@
     </row>
     <row r="92">
       <c r="A92" t="n">
-        <v>109972800</v>
+        <v>109972819</v>
       </c>
       <c r="B92" t="n">
-        <v>76486</v>
+        <v>96334</v>
       </c>
       <c r="C92" t="inlineStr">
         <is>
@@ -11031,25 +11022,25 @@
       </c>
       <c r="D92" t="inlineStr">
         <is>
-          <t>NT</t>
+          <t>VU</t>
         </is>
       </c>
       <c r="E92" t="n">
-        <v>6487</v>
+        <v>220787</v>
       </c>
       <c r="F92" t="inlineStr">
         <is>
-          <t>Blågrå svartspik</t>
+          <t>Knärot</t>
         </is>
       </c>
       <c r="G92" t="inlineStr">
         <is>
-          <t>Chaenothecopsis fennica</t>
+          <t>Goodyera repens</t>
         </is>
       </c>
       <c r="H92" t="inlineStr">
         <is>
-          <t>(Laurila) Tibell</t>
+          <t>(L.) R. Br.</t>
         </is>
       </c>
       <c r="I92" t="inlineStr"/>
@@ -11059,10 +11050,10 @@
         </is>
       </c>
       <c r="Q92" t="n">
-        <v>737593.4857128032</v>
+        <v>738067.0666204885</v>
       </c>
       <c r="R92" t="n">
-        <v>7365119.337845408</v>
+        <v>7364815.442864676</v>
       </c>
       <c r="S92" t="n">
         <v>20</v>
@@ -11105,6 +11096,11 @@
       <c r="AB92" t="inlineStr">
         <is>
           <t>00:00</t>
+        </is>
+      </c>
+      <c r="AC92" t="inlineStr">
+        <is>
+          <t>30 exemplar</t>
         </is>
       </c>
       <c r="AD92" t="b">
@@ -11131,10 +11127,10 @@
     </row>
     <row r="93">
       <c r="A93" t="n">
-        <v>109972790</v>
+        <v>109972812</v>
       </c>
       <c r="B93" t="n">
-        <v>77259</v>
+        <v>78603</v>
       </c>
       <c r="C93" t="inlineStr">
         <is>
@@ -11143,25 +11139,25 @@
       </c>
       <c r="D93" t="inlineStr">
         <is>
-          <t>NT</t>
+          <t>LC</t>
         </is>
       </c>
       <c r="E93" t="n">
-        <v>228912</v>
+        <v>6464</v>
       </c>
       <c r="F93" t="inlineStr">
         <is>
-          <t>Mörk kolflarnlav</t>
+          <t>Luddlav</t>
         </is>
       </c>
       <c r="G93" t="inlineStr">
         <is>
-          <t>Carbonicola myrmecina</t>
+          <t>Nephroma resupinatum</t>
         </is>
       </c>
       <c r="H93" t="inlineStr">
         <is>
-          <t>(Ach.) Bendiksby &amp; Timdal</t>
+          <t>(L.) Ach.</t>
         </is>
       </c>
       <c r="I93" t="inlineStr"/>
@@ -11171,10 +11167,10 @@
         </is>
       </c>
       <c r="Q93" t="n">
-        <v>737686.8010136466</v>
+        <v>738266.287061495</v>
       </c>
       <c r="R93" t="n">
-        <v>7365087.281636368</v>
+        <v>7364438.06365197</v>
       </c>
       <c r="S93" t="n">
         <v>20</v>
@@ -11225,7 +11221,6 @@
       <c r="AE93" t="b">
         <v>0</v>
       </c>
-      <c r="AF93" t="inlineStr"/>
       <c r="AG93" t="b">
         <v>0</v>
       </c>
@@ -11244,10 +11239,10 @@
     </row>
     <row r="94">
       <c r="A94" t="n">
-        <v>109972817</v>
+        <v>109972825</v>
       </c>
       <c r="B94" t="n">
-        <v>96334</v>
+        <v>90653</v>
       </c>
       <c r="C94" t="inlineStr">
         <is>
@@ -11256,25 +11251,25 @@
       </c>
       <c r="D94" t="inlineStr">
         <is>
-          <t>VU</t>
+          <t>LC</t>
         </is>
       </c>
       <c r="E94" t="n">
-        <v>220787</v>
+        <v>4364</v>
       </c>
       <c r="F94" t="inlineStr">
         <is>
-          <t>Knärot</t>
+          <t>Dropptaggsvamp</t>
         </is>
       </c>
       <c r="G94" t="inlineStr">
         <is>
-          <t>Goodyera repens</t>
+          <t>Hydnellum ferrugineum</t>
         </is>
       </c>
       <c r="H94" t="inlineStr">
         <is>
-          <t>(L.) R. Br.</t>
+          <t>(Fr.:Fr.) P. Karst.</t>
         </is>
       </c>
       <c r="I94" t="inlineStr"/>
@@ -11284,10 +11279,10 @@
         </is>
       </c>
       <c r="Q94" t="n">
-        <v>738111.7333335601</v>
+        <v>738207.3106196746</v>
       </c>
       <c r="R94" t="n">
-        <v>7364784.906334218</v>
+        <v>7364437.076904429</v>
       </c>
       <c r="S94" t="n">
         <v>20</v>
@@ -11334,7 +11329,7 @@
       </c>
       <c r="AC94" t="inlineStr">
         <is>
-          <t>6 exemplar</t>
+          <t>4 exemplar</t>
         </is>
       </c>
       <c r="AD94" t="b">
@@ -11361,10 +11356,10 @@
     </row>
     <row r="95">
       <c r="A95" t="n">
-        <v>109972816</v>
+        <v>109972805</v>
       </c>
       <c r="B95" t="n">
-        <v>77258</v>
+        <v>56395</v>
       </c>
       <c r="C95" t="inlineStr">
         <is>
@@ -11377,21 +11372,21 @@
         </is>
       </c>
       <c r="E95" t="n">
-        <v>6446</v>
+        <v>100109</v>
       </c>
       <c r="F95" t="inlineStr">
         <is>
-          <t>Kolflarnlav</t>
+          <t>Tretåig hackspett</t>
         </is>
       </c>
       <c r="G95" t="inlineStr">
         <is>
-          <t>Carbonicola anthracophila</t>
+          <t>Picoides tridactylus</t>
         </is>
       </c>
       <c r="H95" t="inlineStr">
         <is>
-          <t>(Nyl.) Bendiksby &amp; Timdal</t>
+          <t>(Linnaeus, 1758)</t>
         </is>
       </c>
       <c r="I95" t="inlineStr"/>
@@ -11401,10 +11396,10 @@
         </is>
       </c>
       <c r="Q95" t="n">
-        <v>738339.1448127169</v>
+        <v>738147.8967334714</v>
       </c>
       <c r="R95" t="n">
-        <v>7364281.020702397</v>
+        <v>7364531.415991118</v>
       </c>
       <c r="S95" t="n">
         <v>20</v>
@@ -11449,13 +11444,17 @@
           <t>00:00</t>
         </is>
       </c>
+      <c r="AC95" t="inlineStr">
+        <is>
+          <t>Hackspår</t>
+        </is>
+      </c>
       <c r="AD95" t="b">
         <v>0</v>
       </c>
       <c r="AE95" t="b">
         <v>0</v>
       </c>
-      <c r="AF95" t="inlineStr"/>
       <c r="AG95" t="b">
         <v>0</v>
       </c>
@@ -11474,7 +11473,7 @@
     </row>
     <row r="96">
       <c r="A96" t="n">
-        <v>109972797</v>
+        <v>109972817</v>
       </c>
       <c r="B96" t="n">
         <v>96334</v>
@@ -11514,10 +11513,10 @@
         </is>
       </c>
       <c r="Q96" t="n">
-        <v>737650.6413470295</v>
+        <v>738111.7333335601</v>
       </c>
       <c r="R96" t="n">
-        <v>7365098.748753224</v>
+        <v>7364784.906334218</v>
       </c>
       <c r="S96" t="n">
         <v>20</v>
@@ -11564,7 +11563,7 @@
       </c>
       <c r="AC96" t="inlineStr">
         <is>
-          <t>Ca 220 exemplar</t>
+          <t>6 exemplar</t>
         </is>
       </c>
       <c r="AD96" t="b">
@@ -11591,10 +11590,10 @@
     </row>
     <row r="97">
       <c r="A97" t="n">
-        <v>109972811</v>
+        <v>109972816</v>
       </c>
       <c r="B97" t="n">
-        <v>78569</v>
+        <v>77258</v>
       </c>
       <c r="C97" t="inlineStr">
         <is>
@@ -11607,21 +11606,21 @@
         </is>
       </c>
       <c r="E97" t="n">
-        <v>6458</v>
+        <v>6446</v>
       </c>
       <c r="F97" t="inlineStr">
         <is>
-          <t>Lunglav</t>
+          <t>Kolflarnlav</t>
         </is>
       </c>
       <c r="G97" t="inlineStr">
         <is>
-          <t>Lobaria pulmonaria</t>
+          <t>Carbonicola anthracophila</t>
         </is>
       </c>
       <c r="H97" t="inlineStr">
         <is>
-          <t>(L.) Hoffm.</t>
+          <t>(Nyl.) Bendiksby &amp; Timdal</t>
         </is>
       </c>
       <c r="I97" t="inlineStr"/>
@@ -11631,10 +11630,10 @@
         </is>
       </c>
       <c r="Q97" t="n">
-        <v>738267.0306973346</v>
+        <v>738339.1448127169</v>
       </c>
       <c r="R97" t="n">
-        <v>7364434.086195918</v>
+        <v>7364281.020702397</v>
       </c>
       <c r="S97" t="n">
         <v>20</v>
@@ -11685,6 +11684,7 @@
       <c r="AE97" t="b">
         <v>0</v>
       </c>
+      <c r="AF97" t="inlineStr"/>
       <c r="AG97" t="b">
         <v>0</v>
       </c>
@@ -11703,10 +11703,10 @@
     </row>
     <row r="98">
       <c r="A98" t="n">
-        <v>109972820</v>
+        <v>109972811</v>
       </c>
       <c r="B98" t="n">
-        <v>96334</v>
+        <v>78569</v>
       </c>
       <c r="C98" t="inlineStr">
         <is>
@@ -11715,25 +11715,25 @@
       </c>
       <c r="D98" t="inlineStr">
         <is>
-          <t>VU</t>
+          <t>NT</t>
         </is>
       </c>
       <c r="E98" t="n">
-        <v>220787</v>
+        <v>6458</v>
       </c>
       <c r="F98" t="inlineStr">
         <is>
-          <t>Knärot</t>
+          <t>Lunglav</t>
         </is>
       </c>
       <c r="G98" t="inlineStr">
         <is>
-          <t>Goodyera repens</t>
+          <t>Lobaria pulmonaria</t>
         </is>
       </c>
       <c r="H98" t="inlineStr">
         <is>
-          <t>(L.) R. Br.</t>
+          <t>(L.) Hoffm.</t>
         </is>
       </c>
       <c r="I98" t="inlineStr"/>
@@ -11743,10 +11743,10 @@
         </is>
       </c>
       <c r="Q98" t="n">
-        <v>738109.5632682247</v>
+        <v>738267.0306973346</v>
       </c>
       <c r="R98" t="n">
-        <v>7364781.893186378</v>
+        <v>7364434.086195918</v>
       </c>
       <c r="S98" t="n">
         <v>20</v>
@@ -11789,11 +11789,6 @@
       <c r="AB98" t="inlineStr">
         <is>
           <t>00:00</t>
-        </is>
-      </c>
-      <c r="AC98" t="inlineStr">
-        <is>
-          <t>Ca 110 exemplar</t>
         </is>
       </c>
       <c r="AD98" t="b">
@@ -11820,10 +11815,10 @@
     </row>
     <row r="99">
       <c r="A99" t="n">
-        <v>109972815</v>
+        <v>109972820</v>
       </c>
       <c r="B99" t="n">
-        <v>77258</v>
+        <v>96334</v>
       </c>
       <c r="C99" t="inlineStr">
         <is>
@@ -11832,25 +11827,25 @@
       </c>
       <c r="D99" t="inlineStr">
         <is>
-          <t>NT</t>
+          <t>VU</t>
         </is>
       </c>
       <c r="E99" t="n">
-        <v>6446</v>
+        <v>220787</v>
       </c>
       <c r="F99" t="inlineStr">
         <is>
-          <t>Kolflarnlav</t>
+          <t>Knärot</t>
         </is>
       </c>
       <c r="G99" t="inlineStr">
         <is>
-          <t>Carbonicola anthracophila</t>
+          <t>Goodyera repens</t>
         </is>
       </c>
       <c r="H99" t="inlineStr">
         <is>
-          <t>(Nyl.) Bendiksby &amp; Timdal</t>
+          <t>(L.) R. Br.</t>
         </is>
       </c>
       <c r="I99" t="inlineStr"/>
@@ -11860,10 +11855,10 @@
         </is>
       </c>
       <c r="Q99" t="n">
-        <v>738308.2878156125</v>
+        <v>738109.5632682247</v>
       </c>
       <c r="R99" t="n">
-        <v>7364277.581220226</v>
+        <v>7364781.893186378</v>
       </c>
       <c r="S99" t="n">
         <v>20</v>
@@ -11908,13 +11903,17 @@
           <t>00:00</t>
         </is>
       </c>
+      <c r="AC99" t="inlineStr">
+        <is>
+          <t>Ca 110 exemplar</t>
+        </is>
+      </c>
       <c r="AD99" t="b">
         <v>0</v>
       </c>
       <c r="AE99" t="b">
         <v>0</v>
       </c>
-      <c r="AF99" t="inlineStr"/>
       <c r="AG99" t="b">
         <v>0</v>
       </c>
@@ -11933,10 +11932,10 @@
     </row>
     <row r="100">
       <c r="A100" t="n">
-        <v>109972785</v>
+        <v>109972815</v>
       </c>
       <c r="B100" t="n">
-        <v>78596</v>
+        <v>77258</v>
       </c>
       <c r="C100" t="inlineStr">
         <is>
@@ -11945,25 +11944,25 @@
       </c>
       <c r="D100" t="inlineStr">
         <is>
-          <t>LC</t>
+          <t>NT</t>
         </is>
       </c>
       <c r="E100" t="n">
-        <v>6462</v>
+        <v>6446</v>
       </c>
       <c r="F100" t="inlineStr">
         <is>
-          <t>Stuplav</t>
+          <t>Kolflarnlav</t>
         </is>
       </c>
       <c r="G100" t="inlineStr">
         <is>
-          <t>Nephroma bellum</t>
+          <t>Carbonicola anthracophila</t>
         </is>
       </c>
       <c r="H100" t="inlineStr">
         <is>
-          <t>(Spreng.) Tuck.</t>
+          <t>(Nyl.) Bendiksby &amp; Timdal</t>
         </is>
       </c>
       <c r="I100" t="inlineStr"/>
@@ -11973,10 +11972,10 @@
         </is>
       </c>
       <c r="Q100" t="n">
-        <v>737673.8844158245</v>
+        <v>738308.2878156125</v>
       </c>
       <c r="R100" t="n">
-        <v>7365086.990749126</v>
+        <v>7364277.581220226</v>
       </c>
       <c r="S100" t="n">
         <v>20</v>
@@ -12027,6 +12026,7 @@
       <c r="AE100" t="b">
         <v>0</v>
       </c>
+      <c r="AF100" t="inlineStr"/>
       <c r="AG100" t="b">
         <v>0</v>
       </c>
